--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-21.xlsx
@@ -801,7 +801,7 @@
         <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>2.08</v>
@@ -921,11 +921,11 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>48</v>
@@ -1267,7 +1267,7 @@
         <v>32</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G5" t="n">
         <v>2.88</v>
@@ -1374,7 +1374,7 @@
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
         <v>1.91</v>
@@ -1449,7 +1449,7 @@
         <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>13.5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1589,7 +1589,7 @@
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
         <v>60</v>
@@ -1640,13 +1640,13 @@
         <v>910</v>
       </c>
       <c r="AN6" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO6" t="n">
         <v>590</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.41</v>
@@ -1676,7 +1676,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BA6" t="n">
         <v>1.44</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1801,7 +1801,7 @@
         <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>25</v>
@@ -1846,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AT7" t="n">
         <v>6.2</v>
@@ -1861,7 +1861,7 @@
         <v>17.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
         <v>9</v>
@@ -1873,7 +1873,7 @@
         <v>19.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BB7" t="n">
         <v>18.5</v>
@@ -1882,20 +1882,20 @@
         <v>20</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BF7" t="n">
         <v>13.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
         <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.28</v>
@@ -1959,13 +1959,13 @@
         <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
         <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.65</v>
@@ -1977,7 +1977,7 @@
         <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.5</v>
@@ -2162,7 +2162,7 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
         <v>2.16</v>
@@ -2171,7 +2171,7 @@
         <v>1.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -2186,7 +2186,7 @@
         <v>42</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -2210,7 +2210,7 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="n">
         <v>36</v>
@@ -2237,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="AT9" t="n">
         <v>10.5</v>
@@ -2249,7 +2249,7 @@
         <v>10.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>17.5</v>
@@ -2261,29 +2261,29 @@
         <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="BB9" t="n">
         <v>7.2</v>
       </c>
       <c r="BC9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BE9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BG9" t="n">
         <v>18</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2511,16 +2511,16 @@
         <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -2532,16 +2532,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -2556,10 +2556,10 @@
         <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2735,10 +2735,10 @@
         <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
         <v>2.28</v>
@@ -2774,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="AD12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2843,7 +2843,7 @@
         <v>1.61</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BB12" t="n">
         <v>4.1</v>
@@ -2852,10 +2852,10 @@
         <v>4.9</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BF12" t="n">
         <v>3.25</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
         <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -3311,16 +3311,16 @@
         <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
@@ -3335,10 +3335,10 @@
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>18.5</v>
@@ -3347,13 +3347,13 @@
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>17</v>
@@ -3368,13 +3368,13 @@
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -3389,7 +3389,7 @@
         <v>11.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AP15" t="n">
         <v>14.5</v>
@@ -3398,10 +3398,10 @@
         <v>16.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AT15" t="n">
         <v>9.4</v>
@@ -3425,29 +3425,29 @@
         <v>15</v>
       </c>
       <c r="BA15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BF15" t="n">
         <v>10</v>
       </c>
       <c r="BG15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
         <v>1.78</v>
@@ -3517,10 +3517,10 @@
         <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
@@ -3592,7 +3592,7 @@
         <v>19.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="AS16" t="n">
         <v>7.8</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3869,16 +3869,16 @@
         <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -3899,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
@@ -3908,16 +3908,16 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
         <v>1.17</v>
@@ -4111,7 +4111,7 @@
         <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -4496,7 +4496,7 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
         <v>1.72</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G22" t="n">
         <v>1.87</v>
@@ -4801,11 +4801,11 @@
         <v>12</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
         <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
         <v>1.54</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P24" t="n">
         <v>1.54</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="I25" t="n">
         <v>2.94</v>
@@ -5239,7 +5239,7 @@
         <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -5335,22 +5335,22 @@
         <v>12.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AT25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>25</v>
@@ -5362,16 +5362,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BA25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB25" t="n">
         <v>24</v>
       </c>
       <c r="BC25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD25" t="n">
         <v>26</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
         <v>4.9</v>
@@ -5842,7 +5842,7 @@
         <v>1.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S28" t="n">
         <v>2.52</v>
@@ -5860,7 +5860,7 @@
         <v>1.26</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
         <v>12.5</v>
@@ -5938,7 +5938,7 @@
         <v>14.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY28" t="n">
         <v>15.5</v>
@@ -5950,26 +5950,26 @@
         <v>20</v>
       </c>
       <c r="BB28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE28" t="n">
         <v>7.8</v>
       </c>
-      <c r="BC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BF28" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BG28" t="n">
         <v>6.2</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6606,13 +6606,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q32" t="n">
         <v>1.74</v>
@@ -6627,7 +6627,7 @@
         <v>1.51</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
         <v>1.31</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
         <v>1.53</v>
       </c>
       <c r="H33" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I33" t="n">
         <v>9.6</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O34" t="n">
         <v>1.43</v>
@@ -7015,7 +7015,7 @@
         <v>2.28</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V34" t="n">
         <v>1.12</v>
@@ -7024,7 +7024,7 @@
         <v>2.52</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
         <v>38</v>
@@ -7048,10 +7048,10 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
         <v>36</v>
@@ -7060,58 +7060,58 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AR34" t="n">
         <v>4.9</v>
       </c>
       <c r="AS34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AT34" t="n">
         <v>5.2</v>
       </c>
       <c r="AU34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AW34" t="n">
         <v>5.1</v>
       </c>
       <c r="AX34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AY34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AZ34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BA34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BB34" t="n">
         <v>4</v>
@@ -7120,20 +7120,20 @@
         <v>4.3</v>
       </c>
       <c r="BD34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BF34" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BG34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
@@ -7388,10 +7388,10 @@
         <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
         <v>1.23</v>
@@ -7400,16 +7400,16 @@
         <v>3.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -7421,7 +7421,7 @@
         <v>30</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB36" t="n">
         <v>9.800000000000001</v>
@@ -7466,7 +7466,7 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>9.199999999999999</v>
@@ -7481,10 +7481,10 @@
         <v>6.6</v>
       </c>
       <c r="AU36" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AW36" t="n">
         <v>4.8</v>
@@ -7493,7 +7493,7 @@
         <v>10.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ36" t="n">
         <v>17</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7576,10 +7576,10 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
         <v>1.68</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W37" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X37" t="n">
         <v>16</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
         <v>2.9</v>
@@ -7755,10 +7755,10 @@
         <v>2.78</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K38" t="n">
         <v>5.2</v>
@@ -7770,7 +7770,7 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="O38" t="n">
         <v>1.02</v>
@@ -7794,10 +7794,10 @@
         <v>1.05</v>
       </c>
       <c r="V38" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
         <v>2.78</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>500</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G41" t="n">
         <v>2.58</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -8824,10 +8824,10 @@
         <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AR43" t="n">
         <v>22</v>
@@ -8836,34 +8836,34 @@
         <v>50</v>
       </c>
       <c r="AT43" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AU43" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AV43" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AW43" t="n">
         <v>50</v>
       </c>
       <c r="AX43" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY43" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA43" t="n">
         <v>50</v>
       </c>
       <c r="BB43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BC43" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD43" t="n">
         <v>50</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
         <v>2.48</v>
       </c>
       <c r="O45" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P45" t="n">
         <v>1.37</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9716,10 +9716,10 @@
         <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R48" t="n">
         <v>1.25</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -9883,13 +9883,13 @@
         <v>1.19</v>
       </c>
       <c r="G49" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H49" t="n">
         <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J49" t="n">
         <v>4.2</v>
@@ -9931,7 +9931,7 @@
         <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10110,10 +10110,10 @@
         <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T50" t="n">
         <v>1.79</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10268,16 +10268,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I51" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J51" t="n">
         <v>3</v>
@@ -10292,7 +10292,7 @@
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
         <v>1.43</v>
@@ -10319,7 +10319,7 @@
         <v>1.53</v>
       </c>
       <c r="W51" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X51" t="n">
         <v>12</v>
@@ -10376,7 +10376,7 @@
         <v>40</v>
       </c>
       <c r="AP51" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AQ51" t="n">
         <v>8.6</v>
@@ -10409,29 +10409,29 @@
         <v>16.5</v>
       </c>
       <c r="BA51" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BB51" t="n">
         <v>8</v>
       </c>
       <c r="BC51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD51" t="n">
         <v>8</v>
       </c>
       <c r="BE51" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF51" t="n">
         <v>7.6</v>
       </c>
       <c r="BG51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G52" t="n">
         <v>1.88</v>
@@ -10495,7 +10495,7 @@
         <v>1.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
         <v>1.26</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
         <v>1.66</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R53" t="n">
         <v>1.24</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -10853,13 +10853,13 @@
         <v>2.12</v>
       </c>
       <c r="G54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H54" t="n">
         <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
         <v>3.55</v>
@@ -10901,7 +10901,7 @@
         <v>1.33</v>
       </c>
       <c r="W54" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X54" t="n">
         <v>12.5</v>
@@ -10967,7 +10967,7 @@
         <v>24</v>
       </c>
       <c r="AS54" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AT54" t="n">
         <v>8.6</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11098,10 +11098,10 @@
         <v>1.79</v>
       </c>
       <c r="X55" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y55" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z55" t="n">
         <v>28</v>
@@ -11110,25 +11110,25 @@
         <v>80</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC55" t="n">
         <v>9</v>
       </c>
       <c r="AD55" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE55" t="n">
         <v>48</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG55" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH55" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI55" t="n">
         <v>55</v>
@@ -11146,7 +11146,7 @@
         <v>100</v>
       </c>
       <c r="AN55" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO55" t="n">
         <v>44</v>
@@ -11155,59 +11155,59 @@
         <v>5.7</v>
       </c>
       <c r="AQ55" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AR55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC55" t="n">
         <v>6.2</v>
       </c>
-      <c r="AS55" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AW55" t="n">
+      <c r="BD55" t="n">
         <v>3.45</v>
       </c>
-      <c r="AX55" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ55" t="n">
+      <c r="BE55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF55" t="n">
         <v>5.5</v>
       </c>
-      <c r="BA55" t="n">
+      <c r="BG55" t="n">
         <v>7</v>
       </c>
-      <c r="BB55" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11462,7 @@
         <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q57" t="n">
         <v>2.14</v>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
         <v>2.46</v>
       </c>
       <c r="R58" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="n">
         <v>4.1</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -11820,22 +11820,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="H59" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -11862,16 +11862,16 @@
         <v>3.4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V59" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X59" t="n">
         <v>16</v>
@@ -11886,7 +11886,7 @@
         <v>55</v>
       </c>
       <c r="AB59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="n">
         <v>9</v>
@@ -11898,10 +11898,10 @@
         <v>40</v>
       </c>
       <c r="AF59" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG59" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH59" t="n">
         <v>20</v>
@@ -11910,13 +11910,13 @@
         <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM59" t="n">
         <v>110</v>
@@ -11928,62 +11928,62 @@
         <v>34</v>
       </c>
       <c r="AP59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV59" t="n">
         <v>11.5</v>
       </c>
-      <c r="AQ59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR59" t="n">
+      <c r="AW59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF59" t="n">
         <v>17.5</v>
       </c>
-      <c r="AS59" t="n">
+      <c r="BG59" t="n">
         <v>4.9</v>
       </c>
-      <c r="AT59" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>18</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O60" t="n">
         <v>1.27</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
         <v>2.14</v>
       </c>
       <c r="G61" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>2.5</v>
@@ -12259,7 +12259,7 @@
         <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12408,16 +12408,16 @@
         <v>2.98</v>
       </c>
       <c r="H62" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I62" t="n">
         <v>3.45</v>
       </c>
       <c r="J62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -12438,19 +12438,19 @@
         <v>1.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S62" t="n">
         <v>2.5</v>
       </c>
       <c r="T62" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U62" t="n">
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W62" t="n">
         <v>1.5</v>
@@ -12510,7 +12510,7 @@
         <v>1000</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="AQ62" t="n">
         <v>10</v>
@@ -12522,25 +12522,25 @@
         <v>2.4</v>
       </c>
       <c r="AT62" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV62" t="n">
         <v>2.2</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>2.22</v>
       </c>
       <c r="AW62" t="n">
         <v>2.36</v>
       </c>
       <c r="AX62" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="AY62" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AZ62" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="BA62" t="n">
         <v>2.38</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -12790,16 +12790,16 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G64" t="n">
         <v>1.17</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.18</v>
       </c>
       <c r="H64" t="n">
         <v>18</v>
       </c>
       <c r="I64" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J64" t="n">
         <v>11</v>
@@ -12847,16 +12847,16 @@
         <v>90</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z64" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC64" t="n">
         <v>28</v>
@@ -12865,13 +12865,13 @@
         <v>65</v>
       </c>
       <c r="AE64" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF64" t="n">
         <v>13.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH64" t="n">
         <v>36</v>
@@ -12883,10 +12883,10 @@
         <v>11.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
@@ -12895,28 +12895,28 @@
         <v>2.3</v>
       </c>
       <c r="AO64" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AP64" t="n">
         <v>36</v>
       </c>
       <c r="AQ64" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AR64" t="n">
         <v>48</v>
       </c>
       <c r="AS64" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AT64" t="n">
         <v>21</v>
       </c>
       <c r="AU64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AV64" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AW64" t="n">
         <v>46</v>
@@ -12934,10 +12934,10 @@
         <v>40</v>
       </c>
       <c r="BB64" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BC64" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BD64" t="n">
         <v>23</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
         <v>1.97</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R65" t="n">
         <v>1.38</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13223,10 +13223,10 @@
         <v>1.58</v>
       </c>
       <c r="U66" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V66" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W66" t="n">
         <v>1.39</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13763,7 @@
         <v>1.61</v>
       </c>
       <c r="G69" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H69" t="n">
         <v>5.9</v>
@@ -13775,7 +13775,7 @@
         <v>3.8</v>
       </c>
       <c r="K69" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.33</v>
@@ -13811,7 +13811,7 @@
         <v>1.16</v>
       </c>
       <c r="W69" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X69" t="n">
         <v>15.5</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
         <v>2.36</v>
       </c>
       <c r="G71" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H71" t="n">
         <v>3.15</v>
@@ -14172,7 +14172,7 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O71" t="n">
         <v>1.01</v>
@@ -14199,7 +14199,7 @@
         <v>1.38</v>
       </c>
       <c r="W71" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14468,7 +14468,7 @@
         <v>6.6</v>
       </c>
       <c r="AV72" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AW72" t="n">
         <v>27</v>
@@ -14477,7 +14477,7 @@
         <v>10</v>
       </c>
       <c r="AY72" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ72" t="n">
         <v>14</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14536,22 +14536,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G73" t="n">
         <v>2.26</v>
       </c>
       <c r="H73" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K73" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="L73" t="n">
         <v>1.37</v>
@@ -14593,7 +14593,7 @@
         <v>15.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z73" t="n">
         <v>1000</v>
@@ -14608,7 +14608,7 @@
         <v>10.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE73" t="n">
         <v>1000</v>
@@ -14617,7 +14617,7 @@
         <v>17.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH73" t="n">
         <v>1000</v>
@@ -14644,62 +14644,62 @@
         <v>1000</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AU73" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AW73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AX73" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="AY73" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AZ73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BA73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BB73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BC73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BD73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BE73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BF73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BG73" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
         <v>1.54</v>
       </c>
       <c r="G74" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H74" t="n">
         <v>5.6</v>
@@ -14745,7 +14745,7 @@
         <v>3.4</v>
       </c>
       <c r="K74" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L74" t="n">
         <v>1.35</v>
@@ -14781,7 +14781,7 @@
         <v>1.1</v>
       </c>
       <c r="W74" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -14856,7 +14856,7 @@
         <v>8</v>
       </c>
       <c r="AV74" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AW74" t="n">
         <v>50</v>
@@ -14865,7 +14865,7 @@
         <v>6.4</v>
       </c>
       <c r="AY74" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ74" t="n">
         <v>20</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -14924,22 +14924,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G75" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H75" t="n">
         <v>4.6</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J75" t="n">
         <v>3.75</v>
       </c>
       <c r="K75" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L75" t="n">
         <v>1.33</v>
@@ -14957,13 +14957,13 @@
         <v>1.95</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
         <v>1.35</v>
       </c>
       <c r="S75" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T75" t="n">
         <v>1.01</v>
@@ -14975,7 +14975,7 @@
         <v>1.23</v>
       </c>
       <c r="W75" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -14996,7 +14996,7 @@
         <v>13</v>
       </c>
       <c r="AD75" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE75" t="n">
         <v>95</v>
@@ -15005,16 +15005,16 @@
         <v>15</v>
       </c>
       <c r="AG75" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH75" t="n">
         <v>30</v>
       </c>
       <c r="AI75" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ75" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK75" t="n">
         <v>26</v>
@@ -15032,62 +15032,62 @@
         <v>1000</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="AR75" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="AU75" t="n">
-        <v>7.2</v>
+        <v>1.55</v>
       </c>
       <c r="AV75" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AX75" t="n">
-        <v>1.96</v>
+        <v>1.57</v>
       </c>
       <c r="AY75" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AZ75" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="BA75" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="BB75" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="BC75" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="BD75" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="BE75" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="BF75" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="BG75" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15145,7 +15145,7 @@
         <v>2.04</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P76" t="n">
         <v>2.04</v>
@@ -15226,19 +15226,19 @@
         <v>1000</v>
       </c>
       <c r="AP76" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR76" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>16.5</v>
       </c>
       <c r="AS76" t="n">
         <v>30</v>
       </c>
       <c r="AT76" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AU76" t="n">
         <v>7.2</v>
@@ -15247,10 +15247,10 @@
         <v>9.6</v>
       </c>
       <c r="AW76" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AX76" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY76" t="n">
         <v>9.4</v>
@@ -15259,19 +15259,19 @@
         <v>11.5</v>
       </c>
       <c r="BA76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB76" t="n">
         <v>27</v>
       </c>
       <c r="BC76" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD76" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BE76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BF76" t="n">
         <v>1.01</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15432,10 +15432,10 @@
         <v>24</v>
       </c>
       <c r="AT77" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU77" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV77" t="n">
         <v>9.199999999999999</v>
@@ -15462,7 +15462,7 @@
         <v>24</v>
       </c>
       <c r="BD77" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE77" t="n">
         <v>50</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
         <v>5.6</v>
       </c>
       <c r="I80" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J80" t="n">
         <v>3.9</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16136,7 @@
         <v>1.89</v>
       </c>
       <c r="V81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W81" t="n">
         <v>1.96</v>
@@ -16193,7 +16193,7 @@
         <v>16</v>
       </c>
       <c r="AO81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP81" t="n">
         <v>12</v>
@@ -16217,7 +16217,7 @@
         <v>14.5</v>
       </c>
       <c r="AW81" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AX81" t="n">
         <v>11</v>
@@ -16238,10 +16238,10 @@
         <v>7</v>
       </c>
       <c r="BD81" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BE81" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF81" t="n">
         <v>11.5</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16315,13 +16315,13 @@
         <v>2.1</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R82" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S82" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T82" t="n">
         <v>1.66</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16476,10 +16476,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G83" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="H83" t="n">
         <v>5</v>
@@ -16527,7 +16527,7 @@
         <v>1.17</v>
       </c>
       <c r="W83" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="X83" t="n">
         <v>19.5</v>
@@ -16632,14 +16632,14 @@
         <v>4.9</v>
       </c>
       <c r="BF83" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BG83" t="n">
         <v>4.8</v>
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -16936,7 +16936,7 @@
         <v>16</v>
       </c>
       <c r="AD85" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
         <v>90</v>
@@ -16945,7 +16945,7 @@
         <v>17</v>
       </c>
       <c r="AG85" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
         <v>26</v>
@@ -16960,7 +16960,7 @@
         <v>21</v>
       </c>
       <c r="AL85" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM85" t="n">
         <v>100</v>
@@ -16972,62 +16972,62 @@
         <v>1000</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="AR85" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AU85" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AV85" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AW85" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="AX85" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AY85" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="AZ85" t="n">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="BA85" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="BB85" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="BC85" t="n">
         <v>10.5</v>
       </c>
       <c r="BD85" t="n">
-        <v>19</v>
+        <v>1.68</v>
       </c>
       <c r="BE85" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="BF85" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="BG85" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17058,22 +17058,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G86" t="n">
         <v>2.88</v>
       </c>
       <c r="H86" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I86" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J86" t="n">
         <v>3.2</v>
       </c>
       <c r="K86" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -17109,7 +17109,7 @@
         <v>1.39</v>
       </c>
       <c r="W86" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -17166,52 +17166,52 @@
         <v>1000</v>
       </c>
       <c r="AP86" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AQ86" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR86" t="n">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AS86" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="AT86" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AV86" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW86" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="AX86" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AY86" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ86" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BA86" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BB86" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="BC86" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BD86" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BE86" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="BF86" t="n">
         <v>1.01</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17378,7 @@
         <v>6.8</v>
       </c>
       <c r="AV87" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AW87" t="n">
         <v>17.5</v>
@@ -17387,7 +17387,7 @@
         <v>19</v>
       </c>
       <c r="AY87" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ87" t="n">
         <v>14</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17458,10 +17458,10 @@
         <v>3.2</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K88" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="G89" t="n">
         <v>6.4</v>
@@ -17655,7 +17655,7 @@
         <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L89" t="n">
         <v>1.39</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -17942,52 +17942,52 @@
         <v>1000</v>
       </c>
       <c r="AP90" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ90" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR90" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS90" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="AT90" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AU90" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV90" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AW90" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AX90" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY90" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AZ90" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="BA90" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BB90" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BC90" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BD90" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BE90" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF90" t="n">
         <v>1.01</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18049,10 +18049,10 @@
         <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O91" t="n">
         <v>1.39</v>
@@ -18166,7 +18166,7 @@
         <v>13</v>
       </c>
       <c r="AZ91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA91" t="n">
         <v>6.2</v>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18228,10 +18228,10 @@
         <v>1.63</v>
       </c>
       <c r="H92" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="I92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>
@@ -18330,52 +18330,52 @@
         <v>1000</v>
       </c>
       <c r="AP92" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AQ92" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AR92" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="AS92" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT92" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU92" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AV92" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AW92" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AX92" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AY92" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ92" t="n">
-        <v>19.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA92" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BB92" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BC92" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="BD92" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BE92" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF92" t="n">
         <v>1.01</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18449,7 +18449,7 @@
         <v>1.94</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R93" t="n">
         <v>1.35</v>
@@ -18458,7 +18458,7 @@
         <v>1.84</v>
       </c>
       <c r="T93" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
         <v>1.01</v>
@@ -18470,7 +18470,7 @@
         <v>1.67</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y93" t="n">
         <v>19</v>
@@ -18533,53 +18533,53 @@
         <v>17</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="AV93" t="n">
         <v>10</v>
       </c>
       <c r="AW93" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="AX93" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="AY93" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="AZ93" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="BA93" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="BB93" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="BC93" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="BE93" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="BG93" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -18828,7 +18828,7 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O95" t="n">
         <v>1.22</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19389,7 +19389,7 @@
         <v>1.57</v>
       </c>
       <c r="G98" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H98" t="n">
         <v>6</v>
@@ -19401,7 +19401,7 @@
         <v>4.1</v>
       </c>
       <c r="K98" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L98" t="n">
         <v>1.27</v>
@@ -19428,7 +19428,7 @@
         <v>3</v>
       </c>
       <c r="T98" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U98" t="n">
         <v>1.84</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19777,10 +19777,10 @@
         <v>2.16</v>
       </c>
       <c r="G100" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H100" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I100" t="n">
         <v>3.55</v>
@@ -19798,34 +19798,34 @@
         <v>1.03</v>
       </c>
       <c r="N100" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O100" t="n">
         <v>1.29</v>
       </c>
       <c r="P100" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q100" t="n">
         <v>1.92</v>
       </c>
       <c r="R100" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="S100" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="T100" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U100" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
         <v>1.39</v>
       </c>
       <c r="W100" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X100" t="n">
         <v>21</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
         <v>4.2</v>
       </c>
       <c r="J101" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K101" t="n">
         <v>4.2</v>
@@ -20016,7 +20016,7 @@
         <v>1.05</v>
       </c>
       <c r="V101" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W101" t="n">
         <v>1.73</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20374,7 +20374,7 @@
         <v>3.85</v>
       </c>
       <c r="L103" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
@@ -20467,7 +20467,7 @@
         <v>14</v>
       </c>
       <c r="AQ103" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR103" t="n">
         <v>32</v>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20774,13 +20774,13 @@
         <v>1.16</v>
       </c>
       <c r="P105" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q105" t="n">
         <v>1.49</v>
       </c>
       <c r="R105" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S105" t="n">
         <v>2.24</v>
@@ -20879,13 +20879,13 @@
         <v>8</v>
       </c>
       <c r="AY105" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ105" t="n">
         <v>30</v>
       </c>
       <c r="BA105" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="BB105" t="n">
         <v>9</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G106" t="n">
         <v>2.2</v>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -21132,22 +21132,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G107" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H107" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I107" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J107" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K107" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -21156,7 +21156,7 @@
         <v>1.11</v>
       </c>
       <c r="N107" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O107" t="n">
         <v>1.52</v>
@@ -21180,49 +21180,49 @@
         <v>1.73</v>
       </c>
       <c r="V107" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W107" t="n">
         <v>1.96</v>
       </c>
       <c r="X107" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y107" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z107" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA107" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB107" t="n">
         <v>6.8</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE107" t="n">
         <v>95</v>
       </c>
       <c r="AF107" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG107" t="n">
         <v>11.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI107" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ107" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK107" t="n">
         <v>28</v>
@@ -21231,71 +21231,71 @@
         <v>60</v>
       </c>
       <c r="AM107" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN107" t="n">
         <v>24</v>
       </c>
       <c r="AO107" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AP107" t="n">
         <v>8</v>
       </c>
       <c r="AQ107" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR107" t="n">
-        <v>7.8</v>
+        <v>29</v>
       </c>
       <c r="AS107" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AU107" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV107" t="n">
         <v>18</v>
       </c>
       <c r="AW107" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX107" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AY107" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ107" t="n">
         <v>21</v>
       </c>
       <c r="BA107" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="BB107" t="n">
         <v>20</v>
       </c>
       <c r="BC107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD107" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="BE107" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="BF107" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BG107" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -21344,7 +21344,7 @@
         <v>3.75</v>
       </c>
       <c r="L108" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M108" t="n">
         <v>1.07</v>
@@ -21356,7 +21356,7 @@
         <v>1.33</v>
       </c>
       <c r="P108" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q108" t="n">
         <v>1.99</v>
@@ -21383,7 +21383,7 @@
         <v>14</v>
       </c>
       <c r="Y108" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z108" t="n">
         <v>32</v>
@@ -21416,7 +21416,7 @@
         <v>65</v>
       </c>
       <c r="AJ108" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK108" t="n">
         <v>20</v>
@@ -21428,7 +21428,7 @@
         <v>100</v>
       </c>
       <c r="AN108" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO108" t="n">
         <v>65</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G109" t="n">
         <v>1.44</v>
@@ -21550,10 +21550,10 @@
         <v>1.3</v>
       </c>
       <c r="P109" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R109" t="n">
         <v>1.28</v>
@@ -21610,7 +21610,7 @@
         <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK109" t="n">
         <v>22</v>
@@ -21628,28 +21628,28 @@
         <v>1000</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AQ109" t="n">
         <v>20</v>
       </c>
       <c r="AR109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.75</v>
+        <v>5.9</v>
       </c>
       <c r="AU109" t="n">
         <v>1.89</v>
       </c>
       <c r="AV109" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AW109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AX109" t="n">
         <v>1.76</v>
@@ -21658,10 +21658,10 @@
         <v>1.88</v>
       </c>
       <c r="AZ109" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="BA109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BB109" t="n">
         <v>1.89</v>
@@ -21673,17 +21673,17 @@
         <v>2.08</v>
       </c>
       <c r="BE109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BF109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BG109" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -21920,7 +21920,7 @@
         <v>2.72</v>
       </c>
       <c r="J111" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K111" t="n">
         <v>4.1</v>
@@ -21932,7 +21932,7 @@
         <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O111" t="n">
         <v>1.23</v>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="BH111" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="BH112" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G113" t="n">
         <v>2.52</v>
@@ -22329,16 +22329,16 @@
         <v>1.92</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R113" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S113" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T113" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="U113" t="n">
         <v>2.16</v>
@@ -22356,7 +22356,7 @@
         <v>15.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA113" t="n">
         <v>70</v>
@@ -22401,7 +22401,7 @@
         <v>26</v>
       </c>
       <c r="AO113" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP113" t="n">
         <v>12.5</v>
@@ -22425,7 +22425,7 @@
         <v>12</v>
       </c>
       <c r="AW113" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX113" t="n">
         <v>14</v>
@@ -22437,19 +22437,19 @@
         <v>15</v>
       </c>
       <c r="BA113" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BB113" t="n">
         <v>3.85</v>
       </c>
       <c r="BC113" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BD113" t="n">
         <v>3.9</v>
       </c>
       <c r="BE113" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BF113" t="n">
         <v>15</v>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="BH113" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
         <v>2.96</v>
       </c>
       <c r="J114" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K114" t="n">
         <v>3.1</v>
@@ -22523,7 +22523,7 @@
         <v>1.49</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R114" t="n">
         <v>1.17</v>
@@ -22535,7 +22535,7 @@
         <v>2.18</v>
       </c>
       <c r="U114" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V114" t="n">
         <v>1.51</v>
@@ -22562,7 +22562,7 @@
         <v>8</v>
       </c>
       <c r="AD114" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE114" t="n">
         <v>55</v>
@@ -22595,7 +22595,7 @@
         <v>70</v>
       </c>
       <c r="AO114" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP114" t="n">
         <v>7.2</v>
@@ -22622,7 +22622,7 @@
         <v>4.8</v>
       </c>
       <c r="AX114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY114" t="n">
         <v>13</v>
@@ -22649,11 +22649,11 @@
         <v>4.9</v>
       </c>
       <c r="BG114" t="n">
-        <v>4.9</v>
+        <v>40</v>
       </c>
       <c r="BH114" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -22847,7 +22847,7 @@
       </c>
       <c r="BH115" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -22878,13 +22878,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G116" t="n">
         <v>1.73</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I116" t="n">
         <v>5.3</v>
@@ -22908,7 +22908,7 @@
         <v>1.17</v>
       </c>
       <c r="P116" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q116" t="n">
         <v>1.53</v>
@@ -22920,7 +22920,7 @@
         <v>2.32</v>
       </c>
       <c r="T116" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U116" t="n">
         <v>2.56</v>
@@ -22992,7 +22992,7 @@
         <v>25</v>
       </c>
       <c r="AR116" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AS116" t="n">
         <v>14.5</v>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="BH116" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -23078,7 +23078,7 @@
         <v>1.62</v>
       </c>
       <c r="H117" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I117" t="n">
         <v>11</v>
@@ -23087,7 +23087,7 @@
         <v>3.9</v>
       </c>
       <c r="K117" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
@@ -23096,16 +23096,16 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O117" t="n">
         <v>1.27</v>
       </c>
       <c r="P117" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R117" t="n">
         <v>1.32</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="BH117" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G118" t="n">
         <v>2.28</v>
@@ -23374,52 +23374,52 @@
         <v>1000</v>
       </c>
       <c r="AP118" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ118" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR118" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AS118" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT118" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU118" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV118" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AW118" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="AX118" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY118" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AZ118" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BA118" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BB118" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC118" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="BD118" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BE118" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF118" t="n">
         <v>1.01</v>
@@ -23429,7 +23429,7 @@
       </c>
       <c r="BH118" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -23463,16 +23463,16 @@
         <v>2.38</v>
       </c>
       <c r="G119" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H119" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I119" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J119" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K119" t="n">
         <v>3.45</v>
@@ -23484,7 +23484,7 @@
         <v>1.1</v>
       </c>
       <c r="N119" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O119" t="n">
         <v>1.45</v>
@@ -23511,7 +23511,7 @@
         <v>1.38</v>
       </c>
       <c r="W119" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X119" t="n">
         <v>10.5</v>
@@ -23568,7 +23568,7 @@
         <v>60</v>
       </c>
       <c r="AP119" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ119" t="n">
         <v>9.4</v>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="BH119" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="BH120" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -23854,7 +23854,7 @@
         <v>3.35</v>
       </c>
       <c r="H121" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I121" t="n">
         <v>2.92</v>
@@ -23899,7 +23899,7 @@
         <v>1.52</v>
       </c>
       <c r="W121" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X121" t="n">
         <v>9.800000000000001</v>
@@ -23956,7 +23956,7 @@
         <v>44</v>
       </c>
       <c r="AP121" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AQ121" t="n">
         <v>7.4</v>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="BH121" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -24042,10 +24042,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G122" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>3.55</v>
@@ -24084,16 +24084,16 @@
         <v>4.2</v>
       </c>
       <c r="T122" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U122" t="n">
         <v>1.91</v>
       </c>
       <c r="V122" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W122" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X122" t="n">
         <v>13.5</v>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="BH122" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -24254,7 +24254,7 @@
         <v>6.2</v>
       </c>
       <c r="L123" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M123" t="n">
         <v>1.01</v>
@@ -24399,7 +24399,7 @@
       </c>
       <c r="BH123" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -24448,7 +24448,7 @@
         <v>5.1</v>
       </c>
       <c r="L124" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M124" t="n">
         <v>1.01</v>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="BH124" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="BH125" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -24818,13 +24818,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="G126" t="n">
-        <v>2.84</v>
+        <v>600</v>
       </c>
       <c r="H126" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="I126" t="n">
         <v>3.7</v>
@@ -24833,7 +24833,7 @@
         <v>3.4</v>
       </c>
       <c r="K126" t="n">
-        <v>7.8</v>
+        <v>500</v>
       </c>
       <c r="L126" t="n">
         <v>1.01</v>
@@ -24869,7 +24869,7 @@
         <v>1.37</v>
       </c>
       <c r="W126" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X126" t="n">
         <v>1000</v>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="BH126" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -25045,7 +25045,7 @@
         <v>1.56</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R127" t="n">
         <v>1.18</v>
@@ -25175,7 +25175,7 @@
       </c>
       <c r="BH127" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -25369,7 +25369,7 @@
       </c>
       <c r="BH128" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -25418,7 +25418,7 @@
         <v>5.8</v>
       </c>
       <c r="L129" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M129" t="n">
         <v>1.01</v>
@@ -25427,7 +25427,7 @@
         <v>2.4</v>
       </c>
       <c r="O129" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="P129" t="n">
         <v>1.54</v>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="BH129" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -25600,16 +25600,16 @@
         <v>2.1</v>
       </c>
       <c r="H130" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J130" t="n">
         <v>3.4</v>
       </c>
       <c r="K130" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L130" t="n">
         <v>1.01</v>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="BH130" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -25821,7 +25821,7 @@
         <v>2.18</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="R131" t="n">
         <v>1.46</v>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="BH131" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26000,7 +26000,7 @@
         <v>4.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M132" t="n">
         <v>1.08</v>
@@ -26024,7 +26024,7 @@
         <v>4</v>
       </c>
       <c r="T132" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U132" t="n">
         <v>1.68</v>
@@ -26135,17 +26135,17 @@
         <v>46</v>
       </c>
       <c r="BE132" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BF132" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="BG132" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH132" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26209,7 +26209,7 @@
         <v>2.14</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="R133" t="n">
         <v>1.37</v>
@@ -26254,7 +26254,7 @@
         <v>1000</v>
       </c>
       <c r="AF133" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG133" t="n">
         <v>15</v>
@@ -26269,7 +26269,7 @@
         <v>30</v>
       </c>
       <c r="AK133" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL133" t="n">
         <v>46</v>
@@ -26284,62 +26284,62 @@
         <v>1000</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AR133" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AU133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BB133" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AV133" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AW133" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AY133" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AZ133" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BA133" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB133" t="n">
-        <v>1.88</v>
       </c>
       <c r="BC133" t="n">
         <v>1.86</v>
       </c>
       <c r="BD133" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="BE133" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BF133" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BG133" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BH133" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26370,7 +26370,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
         <v>6.8</v>
@@ -26406,7 +26406,7 @@
         <v>1.42</v>
       </c>
       <c r="R134" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S134" t="n">
         <v>2.02</v>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="BH134" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
         <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J135" t="n">
         <v>3.75</v>
@@ -26606,13 +26606,13 @@
         <v>2.5</v>
       </c>
       <c r="T135" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U135" t="n">
         <v>2.3</v>
       </c>
       <c r="V135" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W135" t="n">
         <v>1.79</v>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="BH135" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26758,13 +26758,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H136" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I136" t="n">
         <v>1.5</v>
@@ -26773,7 +26773,7 @@
         <v>4.9</v>
       </c>
       <c r="K136" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L136" t="n">
         <v>1.3</v>
@@ -26806,13 +26806,13 @@
         <v>2.12</v>
       </c>
       <c r="V136" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="W136" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X136" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y136" t="n">
         <v>10.5</v>
@@ -26890,7 +26890,7 @@
         <v>13</v>
       </c>
       <c r="AX136" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AY136" t="n">
         <v>21</v>
@@ -26902,26 +26902,26 @@
         <v>25</v>
       </c>
       <c r="BB136" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC136" t="n">
         <v>11</v>
       </c>
-      <c r="BC136" t="n">
+      <c r="BD136" t="n">
         <v>10.5</v>
       </c>
-      <c r="BD136" t="n">
-        <v>10</v>
-      </c>
       <c r="BE136" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BF136" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG136" t="n">
         <v>4.8</v>
       </c>
       <c r="BH136" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -26985,7 +26985,7 @@
         <v>1.81</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R137" t="n">
         <v>1.25</v>
@@ -27115,7 +27115,7 @@
       </c>
       <c r="BH137" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -27194,7 +27194,7 @@
         <v>2.26</v>
       </c>
       <c r="V138" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W138" t="n">
         <v>1.22</v>
@@ -27309,7 +27309,7 @@
       </c>
       <c r="BH138" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -27361,7 +27361,7 @@
         <v>1.31</v>
       </c>
       <c r="M139" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N139" t="n">
         <v>4.9</v>
@@ -27373,7 +27373,7 @@
         <v>2.36</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R139" t="n">
         <v>1.55</v>
@@ -27385,7 +27385,7 @@
         <v>1.59</v>
       </c>
       <c r="U139" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V139" t="n">
         <v>1.36</v>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="BH139" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G140" t="n">
         <v>2.28</v>
       </c>
       <c r="H140" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I140" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J140" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K140" t="n">
         <v>5.8</v>
@@ -27567,13 +27567,13 @@
         <v>1.96</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R140" t="n">
         <v>1.37</v>
       </c>
       <c r="S140" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T140" t="n">
         <v>1.01</v>
@@ -27697,7 +27697,7 @@
       </c>
       <c r="BH140" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
         <v>46</v>
       </c>
       <c r="AN141" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO141" t="n">
         <v>16</v>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="BH141" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28075,17 +28075,17 @@
         <v>26</v>
       </c>
       <c r="BE142" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BF142" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BG142" t="n">
         <v>15</v>
       </c>
       <c r="BH142" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="BH143" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
         <v>55</v>
       </c>
       <c r="Y144" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z144" t="n">
         <v>100</v>
@@ -28400,7 +28400,7 @@
         <v>65</v>
       </c>
       <c r="AJ144" t="n">
-        <v>14.5</v>
+        <v>470</v>
       </c>
       <c r="AK144" t="n">
         <v>14</v>
@@ -28412,22 +28412,22 @@
         <v>65</v>
       </c>
       <c r="AN144" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AO144" t="n">
         <v>60</v>
       </c>
       <c r="AP144" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AQ144" t="n">
         <v>40</v>
       </c>
       <c r="AR144" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AS144" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT144" t="n">
         <v>13.5</v>
@@ -28436,10 +28436,10 @@
         <v>13.5</v>
       </c>
       <c r="AV144" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AW144" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AX144" t="n">
         <v>12</v>
@@ -28451,7 +28451,7 @@
         <v>17</v>
       </c>
       <c r="BA144" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB144" t="n">
         <v>12.5</v>
@@ -28463,7 +28463,7 @@
         <v>18</v>
       </c>
       <c r="BE144" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="BF144" t="n">
         <v>3.4</v>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="BH144" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28510,19 +28510,19 @@
         <v>1.97</v>
       </c>
       <c r="H145" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I145" t="n">
         <v>5</v>
       </c>
       <c r="J145" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K145" t="n">
         <v>3.55</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M145" t="n">
         <v>1.1</v>
@@ -28540,7 +28540,7 @@
         <v>2.28</v>
       </c>
       <c r="R145" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S145" t="n">
         <v>4.4</v>
@@ -28552,16 +28552,16 @@
         <v>1.89</v>
       </c>
       <c r="V145" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X145" t="n">
         <v>11</v>
       </c>
       <c r="Y145" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z145" t="n">
         <v>34</v>
@@ -28621,7 +28621,7 @@
         <v>30</v>
       </c>
       <c r="AS145" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT145" t="n">
         <v>7</v>
@@ -28633,7 +28633,7 @@
         <v>17.5</v>
       </c>
       <c r="AW145" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AX145" t="n">
         <v>9.6</v>
@@ -28657,17 +28657,17 @@
         <v>40</v>
       </c>
       <c r="BE145" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF145" t="n">
         <v>16</v>
       </c>
       <c r="BG145" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BH145" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28722,22 +28722,22 @@
         <v>1.04</v>
       </c>
       <c r="N146" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O146" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P146" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q146" t="n">
         <v>1.69</v>
       </c>
       <c r="R146" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S146" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="T146" t="n">
         <v>2.2</v>
@@ -28782,10 +28782,10 @@
         <v>1000</v>
       </c>
       <c r="AH146" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI146" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ146" t="n">
         <v>1000</v>
@@ -28809,7 +28809,7 @@
         <v>6.8</v>
       </c>
       <c r="AQ146" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AR146" t="n">
         <v>6.6</v>
@@ -28830,10 +28830,10 @@
         <v>12.5</v>
       </c>
       <c r="AX146" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY146" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AZ146" t="n">
         <v>7.6</v>
@@ -28848,20 +28848,20 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BD146" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE146" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BF146" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BG146" t="n">
         <v>4.5</v>
       </c>
       <c r="BH146" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -28904,7 +28904,7 @@
         <v>38</v>
       </c>
       <c r="J147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K147" t="n">
         <v>14</v>
@@ -28931,7 +28931,7 @@
         <v>1.98</v>
       </c>
       <c r="S147" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T147" t="n">
         <v>2.56</v>
@@ -28970,10 +28970,10 @@
         <v>1000</v>
       </c>
       <c r="AF147" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG147" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH147" t="n">
         <v>80</v>
@@ -28988,7 +28988,7 @@
         <v>18</v>
       </c>
       <c r="AL147" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM147" t="n">
         <v>1000</v>
@@ -29000,28 +29000,28 @@
         <v>1000</v>
       </c>
       <c r="AP147" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ147" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT147" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>11.5</v>
       </c>
       <c r="AU147" t="n">
         <v>25</v>
       </c>
       <c r="AV147" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AW147" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AX147" t="n">
         <v>7.6</v>
@@ -29030,10 +29030,10 @@
         <v>14</v>
       </c>
       <c r="AZ147" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BA147" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BB147" t="n">
         <v>7</v>
@@ -29042,20 +29042,20 @@
         <v>13.5</v>
       </c>
       <c r="BD147" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE147" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BF147" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="BG147" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH147" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -29086,13 +29086,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G148" t="n">
         <v>4.2</v>
       </c>
       <c r="H148" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I148" t="n">
         <v>2.86</v>
@@ -29116,16 +29116,16 @@
         <v>1.33</v>
       </c>
       <c r="P148" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R148" t="n">
         <v>1.25</v>
       </c>
       <c r="S148" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T148" t="n">
         <v>1.01</v>
@@ -29249,7 +29249,7 @@
       </c>
       <c r="BH148" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -29280,13 +29280,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="G149" t="n">
         <v>2.84</v>
       </c>
       <c r="H149" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -29295,7 +29295,7 @@
         <v>3.05</v>
       </c>
       <c r="K149" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L149" t="n">
         <v>1.01</v>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="BH149" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -29637,7 +29637,7 @@
       </c>
       <c r="BH150" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -29686,7 +29686,7 @@
         <v>950</v>
       </c>
       <c r="L151" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M151" t="n">
         <v>1.01</v>
@@ -29698,10 +29698,10 @@
         <v>1.35</v>
       </c>
       <c r="P151" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="R151" t="n">
         <v>1.24</v>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="BH151" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -29880,7 +29880,7 @@
         <v>3.7</v>
       </c>
       <c r="L152" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M152" t="n">
         <v>1.08</v>
@@ -29898,10 +29898,10 @@
         <v>2.06</v>
       </c>
       <c r="R152" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S152" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T152" t="n">
         <v>1.01</v>
@@ -30025,7 +30025,7 @@
       </c>
       <c r="BH152" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -30056,7 +30056,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -30092,7 +30092,7 @@
         <v>1.5</v>
       </c>
       <c r="R153" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S153" t="n">
         <v>2.26</v>
@@ -30219,7 +30219,7 @@
       </c>
       <c r="BH153" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -30253,7 +30253,7 @@
         <v>1.71</v>
       </c>
       <c r="G154" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>4.4</v>
@@ -30262,22 +30262,22 @@
         <v>7.6</v>
       </c>
       <c r="J154" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="K154" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P154" t="n">
         <v>1.53</v>
@@ -30286,134 +30286,134 @@
         <v>2.18</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U154" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V154" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W154" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X154" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z154" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB154" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF154" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG154" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ154" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK154" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL154" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO154" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP154" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AR154" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AS154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AT154" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AU154" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AV154" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AW154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AX154" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AY154" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AZ154" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="BA154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BB154" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="BC154" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="BD154" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BE154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BF154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BG154" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BH154" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -30462,152 +30462,152 @@
         <v>4.7</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q155" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q155" t="n">
-        <v>1.01</v>
-      </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U155" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V155" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W155" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO155" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP155" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AR155" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AS155" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AT155" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AU155" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AV155" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AW155" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX155" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY155" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ155" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA155" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB155" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC155" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD155" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BE155" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BF155" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG155" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH155" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -30638,170 +30638,170 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="G156" t="n">
         <v>1.76</v>
       </c>
       <c r="H156" t="n">
-        <v>2.38</v>
+        <v>5.7</v>
       </c>
       <c r="I156" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J156" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="K156" t="n">
         <v>950</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P156" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V156" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W156" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO156" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP156" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR156" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AS156" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AT156" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AU156" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV156" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AW156" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX156" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AY156" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ156" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BA156" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB156" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC156" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD156" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BE156" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BF156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG156" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH156" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -30838,28 +30838,28 @@
         <v>1.17</v>
       </c>
       <c r="H157" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I157" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J157" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K157" t="n">
-        <v>950</v>
+        <v>19</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M157" t="n">
         <v>1.01</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P157" t="n">
         <v>3.85</v>
@@ -30868,10 +30868,10 @@
         <v>1.3</v>
       </c>
       <c r="R157" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S157" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T157" t="n">
         <v>2.06</v>
@@ -30880,10 +30880,10 @@
         <v>1.74</v>
       </c>
       <c r="V157" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X157" t="n">
         <v>1000</v>
@@ -30943,13 +30943,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AQ157" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR157" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AT157" t="n">
         <v>6</v>
@@ -30961,7 +30961,7 @@
         <v>9</v>
       </c>
       <c r="AW157" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AX157" t="n">
         <v>5.2</v>
@@ -30976,10 +30976,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BB157" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BC157" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="BD157" t="n">
         <v>8</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="BH157" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G158" t="n">
         <v>1.61</v>
@@ -31038,31 +31038,31 @@
         <v>7</v>
       </c>
       <c r="J158" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K158" t="n">
         <v>5.6</v>
       </c>
       <c r="L158" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M158" t="n">
         <v>1.03</v>
       </c>
       <c r="N158" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O158" t="n">
         <v>1.16</v>
       </c>
       <c r="P158" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R158" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S158" t="n">
         <v>2.22</v>
@@ -31074,10 +31074,10 @@
         <v>2.28</v>
       </c>
       <c r="V158" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W158" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="X158" t="n">
         <v>1000</v>
@@ -31095,13 +31095,13 @@
         <v>13</v>
       </c>
       <c r="AC158" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD158" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE158" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF158" t="n">
         <v>12.5</v>
@@ -31131,7 +31131,7 @@
         <v>5.9</v>
       </c>
       <c r="AO158" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AP158" t="n">
         <v>23</v>
@@ -31140,10 +31140,10 @@
         <v>22</v>
       </c>
       <c r="AR158" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS158" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT158" t="n">
         <v>10.5</v>
@@ -31155,7 +31155,7 @@
         <v>20</v>
       </c>
       <c r="AW158" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="AX158" t="n">
         <v>10</v>
@@ -31179,17 +31179,17 @@
         <v>21</v>
       </c>
       <c r="BE158" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BF158" t="n">
         <v>4.8</v>
       </c>
       <c r="BG158" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH158" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31238,152 +31238,152 @@
         <v>4.1</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O159" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P159" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q159" t="n">
         <v>1.75</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V159" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W159" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO159" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP159" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR159" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS159" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT159" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU159" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AV159" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AW159" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX159" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AY159" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ159" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA159" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BB159" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BC159" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD159" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BE159" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BF159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG159" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH159" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31414,170 +31414,170 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H160" t="n">
         <v>2.58</v>
       </c>
       <c r="I160" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="J160" t="n">
         <v>3.3</v>
       </c>
       <c r="K160" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P160" t="n">
         <v>2.24</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U160" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V160" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO160" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP160" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR160" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS160" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT160" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU160" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AV160" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW160" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AX160" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AY160" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ160" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA160" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BB160" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC160" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BD160" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BE160" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BF160" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG160" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH160" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="BH161" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="BH162" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -31996,10 +31996,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G163" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H163" t="n">
         <v>5.4</v>
@@ -32159,7 +32159,7 @@
       </c>
       <c r="BH163" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -32208,16 +32208,16 @@
         <v>3.85</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P164" t="n">
         <v>1.86</v>
@@ -32226,134 +32226,134 @@
         <v>1.98</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U164" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V164" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W164" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X164" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y164" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z164" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA164" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB164" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI164" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL164" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO164" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP164" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AR164" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT164" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AU164" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AV164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AW164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AX164" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AY164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AZ164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BA164" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BB164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BC164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BD164" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BE164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BF164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BG164" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BH164" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -32547,7 +32547,7 @@
       </c>
       <c r="BH165" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -32581,13 +32581,13 @@
         <v>3.5</v>
       </c>
       <c r="G166" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H166" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I166" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J166" t="n">
         <v>3.1</v>
@@ -32626,22 +32626,22 @@
         <v>1.87</v>
       </c>
       <c r="V166" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W166" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X166" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y166" t="n">
         <v>8</v>
       </c>
       <c r="Z166" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB166" t="n">
         <v>10.5</v>
@@ -32650,22 +32650,22 @@
         <v>7</v>
       </c>
       <c r="AD166" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE166" t="n">
         <v>34</v>
       </c>
       <c r="AF166" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG166" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH166" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI166" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ166" t="n">
         <v>85</v>
@@ -32674,19 +32674,19 @@
         <v>55</v>
       </c>
       <c r="AL166" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM166" t="n">
         <v>190</v>
       </c>
       <c r="AN166" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AO166" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP166" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ166" t="n">
         <v>7.4</v>
@@ -32695,16 +32695,16 @@
         <v>13</v>
       </c>
       <c r="AS166" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AT166" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU166" t="n">
         <v>6.6</v>
       </c>
       <c r="AV166" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AW166" t="n">
         <v>25</v>
@@ -32734,14 +32734,14 @@
         <v>44</v>
       </c>
       <c r="BF166" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="BG166" t="n">
         <v>21</v>
       </c>
       <c r="BH166" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -32784,7 +32784,7 @@
         <v>5.7</v>
       </c>
       <c r="J167" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K167" t="n">
         <v>3.15</v>
@@ -32935,7 +32935,7 @@
       </c>
       <c r="BH167" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -32996,10 +32996,10 @@
         <v>1.61</v>
       </c>
       <c r="P168" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R168" t="n">
         <v>1.16</v>
@@ -33129,7 +33129,7 @@
       </c>
       <c r="BH168" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -33323,7 +33323,7 @@
       </c>
       <c r="BH169" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -33384,13 +33384,13 @@
         <v>1.16</v>
       </c>
       <c r="P170" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q170" t="n">
         <v>1.48</v>
       </c>
       <c r="R170" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S170" t="n">
         <v>2.18</v>
@@ -33399,7 +33399,7 @@
         <v>1.61</v>
       </c>
       <c r="U170" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V170" t="n">
         <v>0</v>
@@ -33441,7 +33441,7 @@
         <v>19.5</v>
       </c>
       <c r="AI170" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="AJ170" t="n">
         <v>15.5</v>
@@ -33450,16 +33450,16 @@
         <v>13</v>
       </c>
       <c r="AL170" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM170" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN170" t="n">
         <v>5.2</v>
       </c>
       <c r="AO170" t="n">
-        <v>60</v>
+        <v>530</v>
       </c>
       <c r="AP170" t="n">
         <v>29</v>
@@ -33471,7 +33471,7 @@
         <v>50</v>
       </c>
       <c r="AS170" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AT170" t="n">
         <v>12</v>
@@ -33483,7 +33483,7 @@
         <v>22</v>
       </c>
       <c r="AW170" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AX170" t="n">
         <v>11</v>
@@ -33495,7 +33495,7 @@
         <v>17.5</v>
       </c>
       <c r="BA170" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BB170" t="n">
         <v>14</v>
@@ -33504,7 +33504,7 @@
         <v>12</v>
       </c>
       <c r="BD170" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE170" t="n">
         <v>46</v>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="BH170" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -33572,7 +33572,7 @@
         <v>1.06</v>
       </c>
       <c r="N171" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O171" t="n">
         <v>1.32</v>
@@ -33593,7 +33593,7 @@
         <v>2.12</v>
       </c>
       <c r="U171" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V171" t="n">
         <v>0</v>
@@ -33617,7 +33617,7 @@
         <v>7.8</v>
       </c>
       <c r="AC171" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD171" t="n">
         <v>30</v>
@@ -33674,7 +33674,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV171" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW171" t="n">
         <v>40</v>
@@ -33698,7 +33698,7 @@
         <v>15</v>
       </c>
       <c r="BD171" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BE171" t="n">
         <v>44</v>
@@ -33711,7 +33711,7 @@
       </c>
       <c r="BH171" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -33905,7 +33905,7 @@
       </c>
       <c r="BH172" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -33969,7 +33969,7 @@
         <v>1.5</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R173" t="n">
         <v>0</v>
@@ -34099,7 +34099,7 @@
       </c>
       <c r="BH173" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -34199,7 +34199,7 @@
         <v>16</v>
       </c>
       <c r="AC174" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD174" t="n">
         <v>85</v>
@@ -34232,22 +34232,22 @@
         <v>170</v>
       </c>
       <c r="AN174" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AO174" t="n">
         <v>1000</v>
       </c>
       <c r="AP174" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR174" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS174" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT174" t="n">
         <v>14</v>
@@ -34256,10 +34256,10 @@
         <v>10</v>
       </c>
       <c r="AV174" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AW174" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX174" t="n">
         <v>9.4</v>
@@ -34268,10 +34268,10 @@
         <v>12</v>
       </c>
       <c r="AZ174" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BA174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB174" t="n">
         <v>8.6</v>
@@ -34280,20 +34280,20 @@
         <v>11.5</v>
       </c>
       <c r="BD174" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF174" t="n">
         <v>2.38</v>
       </c>
       <c r="BG174" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BH174" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -34487,7 +34487,7 @@
       </c>
       <c r="BH175" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -34518,7 +34518,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G176" t="n">
         <v>4.2</v>
@@ -34533,7 +34533,7 @@
         <v>3.3</v>
       </c>
       <c r="K176" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
@@ -34548,10 +34548,10 @@
         <v>0</v>
       </c>
       <c r="P176" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R176" t="n">
         <v>0</v>
@@ -34681,7 +34681,7 @@
       </c>
       <c r="BH176" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="BH177" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="BH178" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35263,7 +35263,7 @@
       </c>
       <c r="BH179" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35324,10 +35324,10 @@
         <v>0</v>
       </c>
       <c r="P180" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R180" t="n">
         <v>0</v>
@@ -35457,7 +35457,7 @@
       </c>
       <c r="BH180" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35491,7 +35491,7 @@
         <v>2.16</v>
       </c>
       <c r="G181" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H181" t="n">
         <v>2.8</v>
@@ -35651,7 +35651,7 @@
       </c>
       <c r="BH181" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35845,7 +35845,7 @@
       </c>
       <c r="BH182" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -35879,16 +35879,16 @@
         <v>3</v>
       </c>
       <c r="G183" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H183" t="n">
         <v>2.58</v>
       </c>
       <c r="I183" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J183" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="K183" t="n">
         <v>3.4</v>
@@ -35906,10 +35906,10 @@
         <v>0</v>
       </c>
       <c r="P183" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q183" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R183" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
       </c>
       <c r="BH183" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -36233,7 +36233,7 @@
       </c>
       <c r="BH184" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -36427,7 +36427,7 @@
       </c>
       <c r="BH185" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -36491,7 +36491,7 @@
         <v>1.9</v>
       </c>
       <c r="Q186" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R186" t="n">
         <v>0</v>
@@ -36621,7 +36621,7 @@
       </c>
       <c r="BH186" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -36815,7 +36815,7 @@
       </c>
       <c r="BH187" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="BH188" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -37043,10 +37043,10 @@
         <v>1.93</v>
       </c>
       <c r="G189" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="H189" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="I189" t="n">
         <v>5.9</v>
@@ -37203,7 +37203,7 @@
       </c>
       <c r="BH189" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -37397,7 +37397,7 @@
       </c>
       <c r="BH190" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -37591,7 +37591,7 @@
       </c>
       <c r="BH191" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-21.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-21.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>
@@ -771,7 +771,7 @@
         <v>1.66</v>
       </c>
       <c r="I2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -810,7 +810,7 @@
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W2" t="n">
         <v>1.16</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>240</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>48</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1353,19 +1353,19 @@
         <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
@@ -1380,7 +1380,7 @@
         <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>3.35</v>
@@ -1392,10 +1392,10 @@
         <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1410,7 +1410,7 @@
         <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1434,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
@@ -1497,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BF5" t="n">
         <v>23</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
         <v>3.65</v>
@@ -1550,7 +1550,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="n">
         <v>55</v>
@@ -1589,7 +1589,7 @@
         <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>60</v>
@@ -1628,7 +1628,7 @@
         <v>390</v>
       </c>
       <c r="AJ6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
         <v>90</v>
@@ -1658,13 +1658,13 @@
         <v>1.44</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AU6" t="n">
         <v>1.34</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AW6" t="n">
         <v>1.44</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -1926,16 +1926,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
@@ -1956,22 +1956,22 @@
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
         <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.49</v>
@@ -2058,7 +2058,7 @@
         <v>2.38</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AY8" t="n">
         <v>2.2</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -2144,28 +2144,28 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
         <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
         <v>1.61</v>
@@ -2174,7 +2174,7 @@
         <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -2249,7 +2249,7 @@
         <v>10.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AX9" t="n">
         <v>17.5</v>
@@ -2264,26 +2264,26 @@
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="BC9" t="n">
         <v>6.8</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BE9" t="n">
         <v>7.8</v>
       </c>
       <c r="BF9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BG9" t="n">
         <v>18</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.7</v>
@@ -2365,7 +2365,7 @@
         <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -2517,10 +2517,10 @@
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -2532,16 +2532,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -2556,10 +2556,10 @@
         <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G12" t="n">
         <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="I12" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
         <v>7</v>
@@ -2723,37 +2723,37 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T12" t="n">
         <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
         <v>1.04</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2768,7 +2768,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
         <v>970</v>
@@ -2780,10 +2780,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>970</v>
@@ -2792,10 +2792,10 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2813,22 +2813,22 @@
         <v>3.55</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AT12" t="n">
         <v>4.1</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AW12" t="n">
         <v>1.84</v>
@@ -2837,10 +2837,10 @@
         <v>3.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="BA12" t="n">
         <v>1.61</v>
@@ -2849,7 +2849,7 @@
         <v>3.95</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD12" t="n">
         <v>3.15</v>
@@ -2861,11 +2861,11 @@
         <v>3.25</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
@@ -2947,7 +2947,7 @@
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G14" t="n">
         <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -3120,10 +3120,10 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
         <v>1.48</v>
@@ -3132,16 +3132,16 @@
         <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
         <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -3293,7 +3293,7 @@
         <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -3317,19 +3317,19 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>18.5</v>
@@ -3356,7 +3356,7 @@
         <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>50</v>
@@ -3398,7 +3398,7 @@
         <v>16.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
         <v>6</v>
@@ -3502,34 +3502,34 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
@@ -3550,7 +3550,7 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>110</v>
@@ -3592,7 +3592,7 @@
         <v>19.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>7.2</v>
+        <v>44</v>
       </c>
       <c r="AS16" t="n">
         <v>7.8</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="J17" t="n">
         <v>5.7</v>
@@ -3696,7 +3696,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
@@ -3714,10 +3714,10 @@
         <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -4063,10 +4063,10 @@
         <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I19" t="n">
         <v>3.25</v>
@@ -4078,22 +4078,22 @@
         <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
         <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
         <v>1.17</v>
@@ -4102,16 +4102,16 @@
         <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
         <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4123,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
         <v>12.5</v>
@@ -4150,7 +4150,7 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -4168,62 +4168,62 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BC19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BD19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BE19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BF19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BG19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>2.48</v>
@@ -4266,16 +4266,16 @@
         <v>2.62</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>3.9</v>
@@ -4284,19 +4284,19 @@
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
         <v>2.96</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -4305,7 +4305,7 @@
         <v>1.61</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -4323,7 +4323,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -4362,62 +4362,62 @@
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9.6</v>
+        <v>1.08</v>
       </c>
       <c r="AR20" t="n">
-        <v>13.5</v>
+        <v>1.08</v>
       </c>
       <c r="AS20" t="n">
-        <v>28</v>
+        <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>9.800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>1.08</v>
       </c>
       <c r="AX20" t="n">
-        <v>16</v>
+        <v>1.08</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>1.08</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14.5</v>
+        <v>1.08</v>
       </c>
       <c r="BA20" t="n">
-        <v>30</v>
+        <v>1.08</v>
       </c>
       <c r="BB20" t="n">
-        <v>36</v>
+        <v>1.08</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>1.08</v>
       </c>
       <c r="BD20" t="n">
-        <v>32</v>
+        <v>1.08</v>
       </c>
       <c r="BE20" t="n">
-        <v>55</v>
+        <v>1.08</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -4451,13 +4451,13 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -4490,16 +4490,16 @@
         <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
         <v>5.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.45</v>
@@ -4666,37 +4666,37 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
         <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>15.5</v>
@@ -4753,13 +4753,13 @@
         <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>11</v>
+        <v>3.35</v>
       </c>
       <c r="AT22" t="n">
         <v>6.4</v>
@@ -4768,10 +4768,10 @@
         <v>7.4</v>
       </c>
       <c r="AV22" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX22" t="n">
         <v>8.800000000000001</v>
@@ -4780,32 +4780,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB22" t="n">
         <v>7.8</v>
       </c>
-      <c r="BA22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BC22" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD22" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BE22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BF22" t="n">
         <v>12</v>
       </c>
       <c r="BG22" t="n">
-        <v>11</v>
+        <v>2.52</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -5048,13 +5048,13 @@
         <v>7.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="O24" t="n">
         <v>1.02</v>
@@ -5066,16 +5066,16 @@
         <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.02</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -5224,58 +5224,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
         <v>2.94</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.75</v>
+        <v>2.46</v>
       </c>
       <c r="O25" t="n">
         <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
         <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
         <v>1.51</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -5442,13 +5442,13 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
         <v>1.41</v>
@@ -5460,10 +5460,10 @@
         <v>2.04</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
         <v>1.02</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -5615,13 +5615,13 @@
         <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -5630,13 +5630,13 @@
         <v>5.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -5654,16 +5654,16 @@
         <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -5845,13 +5845,13 @@
         <v>1.56</v>
       </c>
       <c r="S28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T28" t="n">
         <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
         <v>2.18</v>
@@ -5914,7 +5914,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AP28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
@@ -5923,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="AS28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AT28" t="n">
         <v>18</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6000,10 +6000,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -6024,7 +6024,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.15</v>
@@ -6042,16 +6042,16 @@
         <v>2.02</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
         <v>1.18</v>
       </c>
       <c r="W29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G30" t="n">
         <v>4.6</v>
@@ -6209,7 +6209,7 @@
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -6218,7 +6218,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -6236,13 +6236,13 @@
         <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W30" t="n">
         <v>1.27</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
         <v>2.58</v>
       </c>
       <c r="I31" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -6412,13 +6412,13 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
         <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
         <v>1.76</v>
@@ -6430,13 +6430,13 @@
         <v>2.82</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W31" t="n">
         <v>1.5</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6606,13 +6606,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.95</v>
+        <v>2.84</v>
       </c>
       <c r="O32" t="n">
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q32" t="n">
         <v>1.74</v>
@@ -6624,10 +6624,10 @@
         <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
         <v>1.32</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
         <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
         <v>4.5</v>
@@ -6818,10 +6818,10 @@
         <v>2.72</v>
       </c>
       <c r="T33" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V33" t="n">
         <v>1.12</v>
@@ -6833,7 +6833,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
         <v>85</v>
@@ -6842,7 +6842,7 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>12.5</v>
@@ -6854,13 +6854,13 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
@@ -6869,7 +6869,7 @@
         <v>15.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
         <v>48</v>
@@ -6884,16 +6884,16 @@
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AQ33" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AR33" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AS33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AT33" t="n">
         <v>7.2</v>
@@ -6902,44 +6902,44 @@
         <v>9</v>
       </c>
       <c r="AV33" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AX33" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AY33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AZ33" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="BA33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BB33" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BC33" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BD33" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="BE33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BF33" t="n">
         <v>5.4</v>
       </c>
       <c r="BG33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I34" t="n">
         <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -6994,16 +6994,16 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -7021,7 +7021,7 @@
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -7078,62 +7078,62 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AQ34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AS34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AT34" t="n">
         <v>5.3</v>
       </c>
       <c r="AU34" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AV34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AY34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AZ34" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BA34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BB34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC34" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BD34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BF34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BG34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
         <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J35" t="n">
         <v>2.96</v>
@@ -7182,22 +7182,22 @@
         <v>5.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R35" t="n">
         <v>1.32</v>
@@ -7206,13 +7206,13 @@
         <v>2.82</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
         <v>1.48</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -7400,16 +7400,16 @@
         <v>3.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -7484,7 +7484,7 @@
         <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AW36" t="n">
         <v>4.8</v>
@@ -7493,7 +7493,7 @@
         <v>10.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
         <v>17</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="H37" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -7576,22 +7576,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W37" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -7675,16 +7675,16 @@
         <v>6.8</v>
       </c>
       <c r="AU37" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV37" t="n">
         <v>12</v>
       </c>
       <c r="AW37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY37" t="n">
         <v>9.4</v>
@@ -7702,7 +7702,7 @@
         <v>21</v>
       </c>
       <c r="BD37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE37" t="n">
         <v>50</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -7746,22 +7746,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>2.72</v>
       </c>
       <c r="K38" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="L38" t="n">
         <v>1.42</v>
@@ -7794,7 +7794,7 @@
         <v>1.05</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W38" t="n">
         <v>1.53</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -7964,16 +7964,16 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -8328,22 +8328,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
         <v>2.86</v>
       </c>
       <c r="K41" t="n">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.5</v>
@@ -8376,10 +8376,10 @@
         <v>1.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
         <v>1.98</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -8546,7 +8546,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.19</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -8824,37 +8824,37 @@
         <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>8.4</v>
       </c>
       <c r="AR43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS43" t="n">
         <v>50</v>
       </c>
       <c r="AT43" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AW43" t="n">
         <v>50</v>
       </c>
       <c r="AX43" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AY43" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA43" t="n">
         <v>50</v>
@@ -8863,7 +8863,7 @@
         <v>19.5</v>
       </c>
       <c r="BC43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD43" t="n">
         <v>50</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
         <v>1.12</v>
       </c>
       <c r="S44" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T44" t="n">
         <v>1.05</v>
@@ -9027,7 +9027,7 @@
         <v>12</v>
       </c>
       <c r="AS44" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AT44" t="n">
         <v>6.2</v>
@@ -9042,13 +9042,13 @@
         <v>34</v>
       </c>
       <c r="AX44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY44" t="n">
         <v>11</v>
       </c>
       <c r="AZ44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA44" t="n">
         <v>50</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -9430,19 +9430,19 @@
         <v>50</v>
       </c>
       <c r="AX46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AY46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA46" t="n">
         <v>50</v>
       </c>
       <c r="BB46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BC46" t="n">
         <v>18.5</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -9516,13 +9516,13 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O47" t="n">
         <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q47" t="n">
         <v>1.7</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G48" t="n">
         <v>2.06</v>
@@ -9698,10 +9698,10 @@
         <v>6.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -9734,7 +9734,7 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W48" t="n">
         <v>1.94</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -9880,22 +9880,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="G49" t="n">
         <v>1.75</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J49" t="n">
         <v>4.2</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -9913,7 +9913,7 @@
         <v>2.08</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R49" t="n">
         <v>1.39</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
         <v>1.38</v>
       </c>
       <c r="G50" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H50" t="n">
         <v>8.199999999999999</v>
@@ -10098,7 +10098,7 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O50" t="n">
         <v>1.18</v>
@@ -10107,7 +10107,7 @@
         <v>2.68</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="R50" t="n">
         <v>1.67</v>
@@ -10116,7 +10116,7 @@
         <v>2.32</v>
       </c>
       <c r="T50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U50" t="n">
         <v>2.08</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -10271,19 +10271,19 @@
         <v>3.05</v>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I51" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -10292,13 +10292,13 @@
         <v>1.11</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q51" t="n">
         <v>2.32</v>
@@ -10307,28 +10307,28 @@
         <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U51" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V51" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W51" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X51" t="n">
         <v>10</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z51" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA51" t="n">
         <v>980</v>
@@ -10343,13 +10343,13 @@
         <v>13</v>
       </c>
       <c r="AE51" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
         <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH51" t="n">
         <v>21</v>
@@ -10370,13 +10370,13 @@
         <v>140</v>
       </c>
       <c r="AN51" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO51" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AP51" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ51" t="n">
         <v>8.6</v>
@@ -10385,13 +10385,13 @@
         <v>15</v>
       </c>
       <c r="AS51" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AT51" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AU51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV51" t="n">
         <v>11</v>
@@ -10406,32 +10406,32 @@
         <v>12</v>
       </c>
       <c r="AZ51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA51" t="n">
         <v>44</v>
       </c>
       <c r="BB51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC51" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BD51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BE51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG51" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="BF51" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -10462,13 +10462,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H52" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I52" t="n">
         <v>5.7</v>
@@ -10486,10 +10486,10 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="O52" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P52" t="n">
         <v>1.8</v>
@@ -10513,7 +10513,7 @@
         <v>1.21</v>
       </c>
       <c r="W52" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X52" t="n">
         <v>14</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G53" t="n">
         <v>2.66</v>
@@ -10665,7 +10665,7 @@
         <v>3.15</v>
       </c>
       <c r="I53" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J53" t="n">
         <v>3.1</v>
@@ -10701,10 +10701,10 @@
         <v>1.91</v>
       </c>
       <c r="U53" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V53" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W53" t="n">
         <v>1.62</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
         <v>1.37</v>
       </c>
       <c r="P54" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q54" t="n">
         <v>2.16</v>
@@ -10889,7 +10889,7 @@
         <v>1.33</v>
       </c>
       <c r="S54" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T54" t="n">
         <v>1.91</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -11044,22 +11044,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G55" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
         <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -11077,7 +11077,7 @@
         <v>2.02</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R55" t="n">
         <v>1.4</v>
@@ -11113,7 +11113,7 @@
         <v>970</v>
       </c>
       <c r="AC55" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD55" t="n">
         <v>970</v>
@@ -11152,62 +11152,62 @@
         <v>44</v>
       </c>
       <c r="AP55" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AR55" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="AS55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG55" t="n">
         <v>8</v>
       </c>
-      <c r="AT55" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -11238,13 +11238,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G56" t="n">
         <v>2.04</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
         <v>7.2</v>
@@ -11253,7 +11253,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>500</v>
+        <v>3.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -11271,7 +11271,7 @@
         <v>1.62</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
         <v>1.24</v>
@@ -11280,7 +11280,7 @@
         <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U56" t="n">
         <v>1.01</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G57" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
@@ -11447,7 +11447,7 @@
         <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -11456,13 +11456,13 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>2.82</v>
+        <v>1.03</v>
       </c>
       <c r="O57" t="n">
         <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q57" t="n">
         <v>2.14</v>
@@ -11471,19 +11471,19 @@
         <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T57" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="U57" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V57" t="n">
         <v>1.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
         <v>15</v>
@@ -11498,7 +11498,7 @@
         <v>75</v>
       </c>
       <c r="AB57" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
         <v>10</v>
@@ -11549,10 +11549,10 @@
         <v>16</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AU57" t="n">
         <v>2.24</v>
@@ -11561,7 +11561,7 @@
         <v>10.5</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AX57" t="n">
         <v>2.54</v>
@@ -11573,29 +11573,29 @@
         <v>2.6</v>
       </c>
       <c r="BA57" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="BB57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BD57" t="n">
         <v>2.74</v>
       </c>
-      <c r="BC57" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>2.76</v>
-      </c>
       <c r="BE57" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BF57" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BG57" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -11626,43 +11626,43 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
         <v>2.38</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.44</v>
       </c>
       <c r="O58" t="n">
         <v>1.46</v>
       </c>
       <c r="P58" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="R58" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S58" t="n">
         <v>4.1</v>
@@ -11674,10 +11674,10 @@
         <v>1.81</v>
       </c>
       <c r="V58" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
         <v>10</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
         <v>2.46</v>
       </c>
       <c r="I59" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J59" t="n">
         <v>3.35</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
         <v>1.18</v>
       </c>
       <c r="S60" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="T60" t="n">
         <v>1.05</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12208,16 +12208,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G61" t="n">
         <v>2.88</v>
       </c>
       <c r="H61" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J61" t="n">
         <v>3.1</v>
@@ -12235,7 +12235,7 @@
         <v>1.96</v>
       </c>
       <c r="O61" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P61" t="n">
         <v>1.96</v>
@@ -12322,7 +12322,7 @@
         <v>10</v>
       </c>
       <c r="AR61" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AS61" t="n">
         <v>32</v>
@@ -12346,7 +12346,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ61" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA61" t="n">
         <v>27</v>
@@ -12355,10 +12355,10 @@
         <v>25</v>
       </c>
       <c r="BC61" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD61" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BE61" t="n">
         <v>48</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
         <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>2.6</v>
@@ -12414,7 +12414,7 @@
         <v>3.45</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K62" t="n">
         <v>5.4</v>
@@ -12444,7 +12444,7 @@
         <v>2.54</v>
       </c>
       <c r="T62" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U62" t="n">
         <v>1.01</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12599,7 +12599,7 @@
         <v>2.28</v>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H63" t="n">
         <v>2.5</v>
@@ -12623,13 +12623,13 @@
         <v>1.97</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P63" t="n">
         <v>1.97</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R63" t="n">
         <v>1.34</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12814,7 +12814,7 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="O64" t="n">
         <v>1.07</v>
@@ -12826,7 +12826,7 @@
         <v>1.23</v>
       </c>
       <c r="R64" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="S64" t="n">
         <v>1.58</v>
@@ -12835,7 +12835,7 @@
         <v>1.75</v>
       </c>
       <c r="U64" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V64" t="n">
         <v>1.05</v>
@@ -12844,7 +12844,7 @@
         <v>6.6</v>
       </c>
       <c r="X64" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y64" t="n">
         <v>1000</v>
@@ -12859,7 +12859,7 @@
         <v>24</v>
       </c>
       <c r="AC64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD64" t="n">
         <v>65</v>
@@ -12868,7 +12868,7 @@
         <v>250</v>
       </c>
       <c r="AF64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG64" t="n">
         <v>14.5</v>
@@ -12913,10 +12913,10 @@
         <v>21</v>
       </c>
       <c r="AU64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV64" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AW64" t="n">
         <v>48</v>
@@ -12940,7 +12940,7 @@
         <v>12</v>
       </c>
       <c r="BD64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE64" t="n">
         <v>40</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -12984,16 +12984,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G65" t="n">
         <v>3.15</v>
       </c>
       <c r="H65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I65" t="n">
         <v>2.52</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.56</v>
       </c>
       <c r="J65" t="n">
         <v>3.5</v>
@@ -13032,7 +13032,7 @@
         <v>2.2</v>
       </c>
       <c r="V65" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W65" t="n">
         <v>1.46</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
         <v>19</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD66" t="n">
         <v>11</v>
@@ -13331,7 +13331,7 @@
         <v>32</v>
       </c>
       <c r="BE66" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BF66" t="n">
         <v>21</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -13372,16 +13372,16 @@
         </is>
       </c>
       <c r="F67" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G67" t="n">
         <v>2.18</v>
       </c>
-      <c r="G67" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I67" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J67" t="n">
         <v>3.55</v>
@@ -13423,7 +13423,7 @@
         <v>1.35</v>
       </c>
       <c r="W67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X67" t="n">
         <v>17</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -13599,7 +13599,7 @@
         <v>1.94</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R68" t="n">
         <v>1.35</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G69" t="n">
         <v>1.73</v>
@@ -13784,16 +13784,16 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>2.66</v>
+        <v>1.1</v>
       </c>
       <c r="O69" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R69" t="n">
         <v>1.29</v>
@@ -13817,7 +13817,7 @@
         <v>15.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z69" t="n">
         <v>55</v>
@@ -13871,10 +13871,10 @@
         <v>12.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR69" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AS69" t="n">
         <v>5.9</v>
@@ -13889,7 +13889,7 @@
         <v>18.5</v>
       </c>
       <c r="AW69" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX69" t="n">
         <v>8.199999999999999</v>
@@ -13901,7 +13901,7 @@
         <v>19</v>
       </c>
       <c r="BA69" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BB69" t="n">
         <v>13.5</v>
@@ -13910,20 +13910,20 @@
         <v>15</v>
       </c>
       <c r="BD69" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE69" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BF69" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BG69" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -13954,22 +13954,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="G70" t="n">
         <v>2.24</v>
       </c>
       <c r="H70" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K70" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L70" t="n">
         <v>1.3</v>
@@ -14002,7 +14002,7 @@
         <v>1.05</v>
       </c>
       <c r="V70" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W70" t="n">
         <v>1.81</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G74" t="n">
         <v>1.75</v>
@@ -14742,10 +14742,10 @@
         <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K74" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L74" t="n">
         <v>1.35</v>
@@ -14781,7 +14781,7 @@
         <v>1.1</v>
       </c>
       <c r="W74" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -14927,16 +14927,16 @@
         <v>1.75</v>
       </c>
       <c r="G75" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="H75" t="n">
         <v>4.6</v>
       </c>
       <c r="I75" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J75" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
         <v>4.4</v>
@@ -14948,22 +14948,22 @@
         <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="O75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
         <v>1.94</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="R75" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S75" t="n">
-        <v>3.35</v>
+        <v>1.78</v>
       </c>
       <c r="T75" t="n">
         <v>1.01</v>
@@ -14972,13 +14972,13 @@
         <v>1.01</v>
       </c>
       <c r="V75" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W75" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="X75" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y75" t="n">
         <v>23</v>
@@ -15032,62 +15032,62 @@
         <v>1000</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.79</v>
+        <v>11.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="AR75" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="AW75" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="AX75" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AY75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="AZ75" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="BA75" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="BB75" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BC75" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="BD75" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="BE75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="BF75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="BG75" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -15327,7 +15327,7 @@
         <v>2.98</v>
       </c>
       <c r="K77" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -15709,10 +15709,10 @@
         <v>3.3</v>
       </c>
       <c r="I79" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K79" t="n">
         <v>60</v>
@@ -15724,16 +15724,16 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R79" t="n">
         <v>1.08</v>
@@ -15751,7 +15751,7 @@
         <v>1.21</v>
       </c>
       <c r="W79" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -15942,7 +15942,7 @@
         <v>1.8</v>
       </c>
       <c r="V80" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W80" t="n">
         <v>2.38</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
         <v>1.34</v>
       </c>
       <c r="P81" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q81" t="n">
         <v>2.02</v>
@@ -16130,7 +16130,7 @@
         <v>3.45</v>
       </c>
       <c r="T81" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U81" t="n">
         <v>1.89</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -16288,13 +16288,13 @@
         <v>2.2</v>
       </c>
       <c r="H82" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I82" t="n">
         <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K82" t="n">
         <v>3.95</v>
@@ -16303,7 +16303,7 @@
         <v>1.34</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
         <v>4.1</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16476,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G83" t="n">
         <v>1.7</v>
@@ -16632,14 +16632,14 @@
         <v>4.9</v>
       </c>
       <c r="BF83" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="BG83" t="n">
         <v>4.8</v>
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -16778,19 +16778,19 @@
         <v>1000</v>
       </c>
       <c r="AP84" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AQ84" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AR84" t="n">
         <v>11.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT84" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AU84" t="n">
         <v>6.2</v>
@@ -16799,7 +16799,7 @@
         <v>1.01</v>
       </c>
       <c r="AW84" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX84" t="n">
         <v>14</v>
@@ -16814,7 +16814,7 @@
         <v>38</v>
       </c>
       <c r="BB84" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BC84" t="n">
         <v>27</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17061,13 +17061,13 @@
         <v>2.42</v>
       </c>
       <c r="G86" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H86" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I86" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J86" t="n">
         <v>3.2</v>
@@ -17106,10 +17106,10 @@
         <v>1.05</v>
       </c>
       <c r="V86" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W86" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17276,13 +17276,13 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="O87" t="n">
         <v>1.15</v>
       </c>
       <c r="P87" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q87" t="n">
         <v>1.38</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17449,7 +17449,7 @@
         <v>2.7</v>
       </c>
       <c r="G88" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H88" t="n">
         <v>2.84</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -18049,19 +18049,19 @@
         <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="O91" t="n">
         <v>1.39</v>
       </c>
       <c r="P91" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R91" t="n">
         <v>1.08</v>
@@ -18091,7 +18091,7 @@
         <v>13</v>
       </c>
       <c r="AA91" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AB91" t="n">
         <v>11.5</v>
@@ -18100,16 +18100,16 @@
         <v>7.6</v>
       </c>
       <c r="AD91" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE91" t="n">
         <v>27</v>
       </c>
       <c r="AF91" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG91" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH91" t="n">
         <v>21</v>
@@ -18148,7 +18148,7 @@
         <v>25</v>
       </c>
       <c r="AT91" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU91" t="n">
         <v>6.8</v>
@@ -18157,7 +18157,7 @@
         <v>10</v>
       </c>
       <c r="AW91" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AX91" t="n">
         <v>23</v>
@@ -18169,29 +18169,29 @@
         <v>17.5</v>
       </c>
       <c r="BA91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC91" t="n">
         <v>11</v>
       </c>
-      <c r="BC91" t="n">
-        <v>10</v>
-      </c>
       <c r="BD91" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="BE91" t="n">
         <v>11.5</v>
       </c>
       <c r="BF91" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BG91" t="n">
         <v>19</v>
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -18455,13 +18455,13 @@
         <v>1.36</v>
       </c>
       <c r="S93" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T93" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U93" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V93" t="n">
         <v>1.39</v>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -18837,7 +18837,7 @@
         <v>1.64</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="R95" t="n">
         <v>1.64</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19410,16 +19410,16 @@
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="O98" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P98" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="R98" t="n">
         <v>1.33</v>
@@ -19488,7 +19488,7 @@
         <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19607,7 +19607,7 @@
         <v>1.95</v>
       </c>
       <c r="O99" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P99" t="n">
         <v>1.94</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -19992,19 +19992,19 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O101" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P101" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q101" t="n">
         <v>1.54</v>
       </c>
       <c r="R101" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S101" t="n">
         <v>2.32</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -20198,10 +20198,10 @@
         <v>1.9</v>
       </c>
       <c r="R102" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S102" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T102" t="n">
         <v>1.8</v>
@@ -20279,7 +20279,7 @@
         <v>32</v>
       </c>
       <c r="AS102" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AT102" t="n">
         <v>9.199999999999999</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
         <v>1.92</v>
       </c>
       <c r="X103" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y103" t="n">
         <v>16</v>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -20574,10 +20574,10 @@
         <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O104" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P104" t="n">
         <v>2.98</v>
@@ -20691,7 +20691,7 @@
         <v>32</v>
       </c>
       <c r="BA104" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="BB104" t="n">
         <v>8.6</v>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G106" t="n">
         <v>1.97</v>
@@ -20968,16 +20968,16 @@
         <v>1.32</v>
       </c>
       <c r="P106" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R106" t="n">
         <v>1.37</v>
       </c>
       <c r="S106" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T106" t="n">
         <v>1.84</v>
@@ -21055,7 +21055,7 @@
         <v>30</v>
       </c>
       <c r="AS106" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AT106" t="n">
         <v>8.6</v>
@@ -21097,11 +21097,11 @@
         <v>12.5</v>
       </c>
       <c r="BG106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
         <v>1.56</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R107" t="n">
         <v>1.2</v>
@@ -21249,7 +21249,7 @@
         <v>29</v>
       </c>
       <c r="AS107" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AT107" t="n">
         <v>6</v>
@@ -21258,7 +21258,7 @@
         <v>7</v>
       </c>
       <c r="AV107" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AW107" t="n">
         <v>13</v>
@@ -21270,7 +21270,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA107" t="n">
         <v>13</v>
@@ -21285,17 +21285,17 @@
         <v>12</v>
       </c>
       <c r="BE107" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BF107" t="n">
         <v>19.5</v>
       </c>
       <c r="BG107" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -21326,7 +21326,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G108" t="n">
         <v>2.2</v>
@@ -21377,7 +21377,7 @@
         <v>1.25</v>
       </c>
       <c r="W108" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X108" t="n">
         <v>9.199999999999999</v>
@@ -21434,7 +21434,7 @@
         <v>150</v>
       </c>
       <c r="AP108" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AQ108" t="n">
         <v>10</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -21523,7 +21523,7 @@
         <v>2.38</v>
       </c>
       <c r="G109" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H109" t="n">
         <v>3.1</v>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -21911,16 +21911,16 @@
         <v>3.05</v>
       </c>
       <c r="G111" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="I111" t="n">
         <v>2.96</v>
       </c>
       <c r="J111" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K111" t="n">
         <v>3.1</v>
@@ -21959,7 +21959,7 @@
         <v>1.51</v>
       </c>
       <c r="W111" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X111" t="n">
         <v>8</v>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="BH111" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="BH112" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="BH113" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -22490,7 +22490,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G114" t="n">
         <v>3.65</v>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="BH114" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G115" t="n">
         <v>2.14</v>
@@ -22768,7 +22768,7 @@
         <v>970</v>
       </c>
       <c r="AH115" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI115" t="n">
         <v>50</v>
@@ -22786,7 +22786,7 @@
         <v>85</v>
       </c>
       <c r="AN115" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AO115" t="n">
         <v>50</v>
@@ -22804,7 +22804,7 @@
         <v>3.2</v>
       </c>
       <c r="AT115" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU115" t="n">
         <v>7.2</v>
@@ -22847,7 +22847,7 @@
       </c>
       <c r="BH115" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -22884,7 +22884,7 @@
         <v>2.56</v>
       </c>
       <c r="H116" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I116" t="n">
         <v>3.6</v>
@@ -22902,7 +22902,7 @@
         <v>1.1</v>
       </c>
       <c r="N116" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O116" t="n">
         <v>1.45</v>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="BH116" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -23075,7 +23075,7 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>2.64</v>
@@ -23180,7 +23180,7 @@
         <v>44</v>
       </c>
       <c r="AP117" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AQ117" t="n">
         <v>7.4</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="BH117" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -23429,7 +23429,7 @@
       </c>
       <c r="BH118" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="BH119" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -23684,7 +23684,7 @@
         <v>1.17</v>
       </c>
       <c r="P120" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q120" t="n">
         <v>1.53</v>
@@ -23693,10 +23693,10 @@
         <v>1.71</v>
       </c>
       <c r="S120" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T120" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U120" t="n">
         <v>2.56</v>
@@ -23759,7 +23759,7 @@
         <v>6.6</v>
       </c>
       <c r="AO120" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP120" t="n">
         <v>24</v>
@@ -23771,7 +23771,7 @@
         <v>40</v>
       </c>
       <c r="AS120" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT120" t="n">
         <v>12</v>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="BH120" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="BH121" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24051,7 +24051,7 @@
         <v>3.55</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
         <v>3.15</v>
@@ -24072,7 +24072,7 @@
         <v>1.42</v>
       </c>
       <c r="P122" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q122" t="n">
         <v>2.24</v>
@@ -24090,7 +24090,7 @@
         <v>1.93</v>
       </c>
       <c r="V122" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W122" t="n">
         <v>1.72</v>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="BH122" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24236,13 +24236,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G123" t="n">
         <v>2.38</v>
       </c>
       <c r="H123" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I123" t="n">
         <v>3.7</v>
@@ -24399,7 +24399,7 @@
       </c>
       <c r="BH123" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="BH124" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24654,7 +24654,7 @@
         <v>1.25</v>
       </c>
       <c r="P125" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q125" t="n">
         <v>2.3</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="BH125" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="BH126" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25042,7 +25042,7 @@
         <v>1.5</v>
       </c>
       <c r="P127" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q127" t="n">
         <v>2.58</v>
@@ -25175,7 +25175,7 @@
       </c>
       <c r="BH127" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25236,7 @@
         <v>1.33</v>
       </c>
       <c r="P128" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q128" t="n">
         <v>1.97</v>
@@ -25369,7 +25369,7 @@
       </c>
       <c r="BH128" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="BH129" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="BH130" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25788,61 +25788,61 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G131" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H131" t="n">
         <v>7.2</v>
       </c>
       <c r="I131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J131" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K131" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="L131" t="n">
         <v>1.01</v>
       </c>
       <c r="M131" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N131" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="O131" t="n">
         <v>1.22</v>
       </c>
       <c r="P131" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R131" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S131" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="T131" t="n">
         <v>1.83</v>
       </c>
       <c r="U131" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V131" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W131" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="X131" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y131" t="n">
         <v>38</v>
@@ -25875,7 +25875,7 @@
         <v>32</v>
       </c>
       <c r="AI131" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ131" t="n">
         <v>970</v>
@@ -25887,19 +25887,19 @@
         <v>44</v>
       </c>
       <c r="AM131" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN131" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO131" t="n">
         <v>1000</v>
       </c>
       <c r="AP131" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AQ131" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AR131" t="n">
         <v>4.2</v>
@@ -25908,25 +25908,25 @@
         <v>4.3</v>
       </c>
       <c r="AT131" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU131" t="n">
         <v>3.35</v>
       </c>
       <c r="AV131" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AW131" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AX131" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="AY131" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AZ131" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="BA131" t="n">
         <v>4.2</v>
@@ -25935,23 +25935,23 @@
         <v>3.35</v>
       </c>
       <c r="BC131" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="BD131" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BE131" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BF131" t="n">
         <v>4.6</v>
       </c>
       <c r="BG131" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BH131" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -25982,10 +25982,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>1.49</v>
@@ -26063,7 +26063,7 @@
         <v>80</v>
       </c>
       <c r="AG132" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH132" t="n">
         <v>32</v>
@@ -26138,14 +26138,14 @@
         <v>60</v>
       </c>
       <c r="BF132" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="BG132" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH132" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -26194,7 +26194,7 @@
         <v>5</v>
       </c>
       <c r="L133" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M133" t="n">
         <v>1.01</v>
@@ -26254,7 +26254,7 @@
         <v>1000</v>
       </c>
       <c r="AF133" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG133" t="n">
         <v>15</v>
@@ -26269,7 +26269,7 @@
         <v>30</v>
       </c>
       <c r="AK133" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL133" t="n">
         <v>46</v>
@@ -26284,62 +26284,62 @@
         <v>1000</v>
       </c>
       <c r="AP133" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV133" t="n">
         <v>1.86</v>
       </c>
-      <c r="AQ133" t="n">
+      <c r="AW133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AZ133" t="n">
         <v>1.86</v>
       </c>
-      <c r="AR133" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AT133" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AU133" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AV133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AW133" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AX133" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AY133" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AZ133" t="n">
-        <v>1.85</v>
-      </c>
       <c r="BA133" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BB133" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="BC133" t="n">
         <v>1.86</v>
       </c>
       <c r="BD133" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="BE133" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BF133" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BG133" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BH133" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -26370,7 +26370,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G134" t="n">
         <v>6.8</v>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="BH134" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -26564,19 +26564,19 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="G135" t="n">
         <v>2.26</v>
       </c>
       <c r="H135" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I135" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J135" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K135" t="n">
         <v>4.2</v>
@@ -26588,16 +26588,16 @@
         <v>1.03</v>
       </c>
       <c r="N135" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="O135" t="n">
         <v>1.24</v>
       </c>
       <c r="P135" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R135" t="n">
         <v>1.39</v>
@@ -26612,7 +26612,7 @@
         <v>2.3</v>
       </c>
       <c r="V135" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W135" t="n">
         <v>1.79</v>
@@ -26708,7 +26708,7 @@
         <v>6.8</v>
       </c>
       <c r="BB135" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC135" t="n">
         <v>18.5</v>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="BH135" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -26767,7 +26767,7 @@
         <v>1.45</v>
       </c>
       <c r="I136" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J136" t="n">
         <v>5</v>
@@ -26803,7 +26803,7 @@
         <v>1.8</v>
       </c>
       <c r="U136" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V136" t="n">
         <v>3</v>
@@ -26842,7 +26842,7 @@
         <v>1000</v>
       </c>
       <c r="AH136" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI136" t="n">
         <v>30</v>
@@ -26854,7 +26854,7 @@
         <v>110</v>
       </c>
       <c r="AL136" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM136" t="n">
         <v>120</v>
@@ -26878,7 +26878,7 @@
         <v>12</v>
       </c>
       <c r="AT136" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU136" t="n">
         <v>10</v>
@@ -26890,16 +26890,16 @@
         <v>13</v>
       </c>
       <c r="AX136" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY136" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ136" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA136" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB136" t="n">
         <v>11</v>
@@ -26908,10 +26908,10 @@
         <v>10.5</v>
       </c>
       <c r="BD136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE136" t="n">
         <v>10.5</v>
-      </c>
-      <c r="BE136" t="n">
-        <v>11</v>
       </c>
       <c r="BF136" t="n">
         <v>10.5</v>
@@ -26921,7 +26921,7 @@
       </c>
       <c r="BH136" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -26967,7 +26967,7 @@
         <v>3.7</v>
       </c>
       <c r="K137" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L137" t="n">
         <v>1.31</v>
@@ -26985,13 +26985,13 @@
         <v>2.36</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R137" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="S137" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T137" t="n">
         <v>1.59</v>
@@ -27115,7 +27115,7 @@
       </c>
       <c r="BH137" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
         <v>5.4</v>
       </c>
       <c r="H138" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I138" t="n">
         <v>1.74</v>
@@ -27176,7 +27176,7 @@
         <v>1.24</v>
       </c>
       <c r="P138" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q138" t="n">
         <v>1.73</v>
@@ -27197,7 +27197,7 @@
         <v>2.34</v>
       </c>
       <c r="W138" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X138" t="n">
         <v>20</v>
@@ -27305,11 +27305,11 @@
         <v>48</v>
       </c>
       <c r="BG138" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BH138" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="BH139" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -27567,7 +27567,7 @@
         <v>1.81</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R140" t="n">
         <v>1.25</v>
@@ -27697,7 +27697,7 @@
       </c>
       <c r="BH140" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -27737,7 +27737,7 @@
         <v>3.2</v>
       </c>
       <c r="I141" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J141" t="n">
         <v>4</v>
@@ -27776,7 +27776,7 @@
         <v>3.05</v>
       </c>
       <c r="V141" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W141" t="n">
         <v>1.79</v>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="BH141" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28036,13 +28036,13 @@
         <v>16.5</v>
       </c>
       <c r="AR142" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS142" t="n">
         <v>42</v>
       </c>
       <c r="AT142" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AU142" t="n">
         <v>8.800000000000001</v>
@@ -28066,7 +28066,7 @@
         <v>29</v>
       </c>
       <c r="BB142" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BC142" t="n">
         <v>21</v>
@@ -28085,7 +28085,7 @@
       </c>
       <c r="BH142" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="BH143" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
         <v>2.04</v>
       </c>
       <c r="S144" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T144" t="n">
         <v>1.58</v>
@@ -28421,13 +28421,13 @@
         <v>7.4</v>
       </c>
       <c r="AQ144" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AR144" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AS144" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT144" t="n">
         <v>13.5</v>
@@ -28451,7 +28451,7 @@
         <v>17</v>
       </c>
       <c r="BA144" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="BB144" t="n">
         <v>12.5</v>
@@ -28469,11 +28469,11 @@
         <v>3.45</v>
       </c>
       <c r="BG144" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BH144" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28513,7 +28513,7 @@
         <v>4.6</v>
       </c>
       <c r="I145" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J145" t="n">
         <v>3.45</v>
@@ -28534,7 +28534,7 @@
         <v>1.44</v>
       </c>
       <c r="P145" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q145" t="n">
         <v>2.28</v>
@@ -28667,7 +28667,7 @@
       </c>
       <c r="BH145" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="BH146" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -28934,7 +28934,7 @@
         <v>1.9</v>
       </c>
       <c r="T147" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U147" t="n">
         <v>1.55</v>
@@ -28961,7 +28961,7 @@
         <v>13</v>
       </c>
       <c r="AC147" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AD147" t="n">
         <v>1000</v>
@@ -29006,10 +29006,10 @@
         <v>11</v>
       </c>
       <c r="AR147" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AS147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT147" t="n">
         <v>10.5</v>
@@ -29018,10 +29018,10 @@
         <v>25</v>
       </c>
       <c r="AV147" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AW147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AX147" t="n">
         <v>7.6</v>
@@ -29033,7 +29033,7 @@
         <v>10.5</v>
       </c>
       <c r="BA147" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BB147" t="n">
         <v>7</v>
@@ -29042,20 +29042,20 @@
         <v>13.5</v>
       </c>
       <c r="BD147" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BE147" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BF147" t="n">
         <v>2.32</v>
       </c>
       <c r="BG147" t="n">
-        <v>12</v>
+        <v>2.14</v>
       </c>
       <c r="BH147" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -29249,7 +29249,7 @@
       </c>
       <c r="BH148" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -29280,7 +29280,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G149" t="n">
         <v>4.3</v>
@@ -29289,13 +29289,13 @@
         <v>2.06</v>
       </c>
       <c r="I149" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J149" t="n">
         <v>3.3</v>
       </c>
       <c r="K149" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L149" t="n">
         <v>1.01</v>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="BH149" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -29637,7 +29637,7 @@
       </c>
       <c r="BH150" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="BH151" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30025,7 +30025,7 @@
       </c>
       <c r="BH152" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30219,7 +30219,7 @@
       </c>
       <c r="BH153" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30274,7 +30274,7 @@
         <v>1.01</v>
       </c>
       <c r="N154" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="O154" t="n">
         <v>1.24</v>
@@ -30413,7 +30413,7 @@
       </c>
       <c r="BH154" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30456,7 +30456,7 @@
         <v>7</v>
       </c>
       <c r="J155" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K155" t="n">
         <v>5.6</v>
@@ -30468,7 +30468,7 @@
         <v>1.03</v>
       </c>
       <c r="N155" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O155" t="n">
         <v>1.16</v>
@@ -30477,13 +30477,13 @@
         <v>2.66</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R155" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S155" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T155" t="n">
         <v>1.64</v>
@@ -30607,7 +30607,7 @@
       </c>
       <c r="BH155" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30671,13 +30671,13 @@
         <v>3.8</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R156" t="n">
         <v>2.06</v>
       </c>
       <c r="S156" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T156" t="n">
         <v>2.06</v>
@@ -30801,7 +30801,7 @@
       </c>
       <c r="BH156" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="BH157" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -31189,7 +31189,7 @@
       </c>
       <c r="BH158" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -31331,13 +31331,13 @@
         <v>16.5</v>
       </c>
       <c r="AQ159" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR159" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AS159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT159" t="n">
         <v>8.199999999999999</v>
@@ -31349,7 +31349,7 @@
         <v>18</v>
       </c>
       <c r="AW159" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX159" t="n">
         <v>9</v>
@@ -31361,7 +31361,7 @@
         <v>18</v>
       </c>
       <c r="BA159" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BB159" t="n">
         <v>13.5</v>
@@ -31370,20 +31370,20 @@
         <v>14.5</v>
       </c>
       <c r="BD159" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE159" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BF159" t="n">
         <v>6</v>
       </c>
       <c r="BG159" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BH159" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -31577,7 +31577,7 @@
       </c>
       <c r="BH160" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -31644,7 +31644,7 @@
         <v>1.7</v>
       </c>
       <c r="R161" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S161" t="n">
         <v>2.72</v>
@@ -31677,7 +31677,7 @@
         <v>13.5</v>
       </c>
       <c r="AC161" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD161" t="n">
         <v>13.5</v>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="BH161" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="BH162" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32159,7 +32159,7 @@
       </c>
       <c r="BH163" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32353,7 +32353,7 @@
       </c>
       <c r="BH164" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32396,7 +32396,7 @@
         <v>2.52</v>
       </c>
       <c r="J165" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K165" t="n">
         <v>3.8</v>
@@ -32408,13 +32408,13 @@
         <v>1.07</v>
       </c>
       <c r="N165" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="O165" t="n">
         <v>1.34</v>
       </c>
       <c r="P165" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q165" t="n">
         <v>1.98</v>
@@ -32429,7 +32429,7 @@
         <v>1.69</v>
       </c>
       <c r="U165" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V165" t="n">
         <v>1.66</v>
@@ -32501,7 +32501,7 @@
         <v>14</v>
       </c>
       <c r="AS165" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AT165" t="n">
         <v>10</v>
@@ -32516,7 +32516,7 @@
         <v>24</v>
       </c>
       <c r="AX165" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY165" t="n">
         <v>11.5</v>
@@ -32547,7 +32547,7 @@
       </c>
       <c r="BH165" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32611,10 +32611,10 @@
         <v>2.24</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R166" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S166" t="n">
         <v>2.42</v>
@@ -32689,19 +32689,19 @@
         <v>6</v>
       </c>
       <c r="AQ166" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR166" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AS166" t="n">
         <v>32</v>
       </c>
       <c r="AT166" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU166" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV166" t="n">
         <v>9.800000000000001</v>
@@ -32710,7 +32710,7 @@
         <v>21</v>
       </c>
       <c r="AX166" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY166" t="n">
         <v>9.6</v>
@@ -32722,7 +32722,7 @@
         <v>27</v>
       </c>
       <c r="BB166" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC166" t="n">
         <v>19</v>
@@ -32731,7 +32731,7 @@
         <v>25</v>
       </c>
       <c r="BE166" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF166" t="n">
         <v>1.01</v>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="BH166" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32796,7 +32796,7 @@
         <v>1.01</v>
       </c>
       <c r="N167" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O167" t="n">
         <v>1.02</v>
@@ -32935,7 +32935,7 @@
       </c>
       <c r="BH167" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -32966,7 +32966,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G168" t="n">
         <v>3.7</v>
@@ -33129,7 +33129,7 @@
       </c>
       <c r="BH168" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -33205,7 +33205,7 @@
         <v>2.64</v>
       </c>
       <c r="U169" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V169" t="n">
         <v>1.23</v>
@@ -33223,7 +33223,7 @@
         <v>38</v>
       </c>
       <c r="AA169" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB169" t="n">
         <v>5.5</v>
@@ -33235,7 +33235,7 @@
         <v>24</v>
       </c>
       <c r="AE169" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF169" t="n">
         <v>10.5</v>
@@ -33244,10 +33244,10 @@
         <v>13</v>
       </c>
       <c r="AH169" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI169" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ169" t="n">
         <v>28</v>
@@ -33265,34 +33265,34 @@
         <v>44</v>
       </c>
       <c r="AO169" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AP169" t="n">
         <v>6</v>
       </c>
       <c r="AQ169" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AR169" t="n">
         <v>10</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AU169" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AV169" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AW169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX169" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AY169" t="n">
         <v>10.5</v>
@@ -33301,29 +33301,29 @@
         <v>3.15</v>
       </c>
       <c r="BA169" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="BB169" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BC169" t="n">
         <v>10</v>
       </c>
       <c r="BD169" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="BE169" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="BF169" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG169" t="n">
         <v>1.67</v>
       </c>
       <c r="BH169" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -33396,10 +33396,10 @@
         <v>6</v>
       </c>
       <c r="T170" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U170" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V170" t="n">
         <v>1.42</v>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="BH170" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
         <v>1.79</v>
       </c>
       <c r="G171" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>4</v>
@@ -33602,116 +33602,116 @@
         <v>2.1</v>
       </c>
       <c r="X171" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW171" t="n">
         <v>34</v>
       </c>
-      <c r="Y171" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z171" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA171" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB171" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD171" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE171" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF171" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH171" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI171" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL171" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM171" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN171" t="n">
+      <c r="AX171" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY171" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AO171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP171" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AQ171" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AR171" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AS171" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AT171" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AU171" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AV171" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AW171" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AX171" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AY171" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AZ171" t="n">
-        <v>2.56</v>
+        <v>13.5</v>
       </c>
       <c r="BA171" t="n">
-        <v>2.76</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB171" t="n">
-        <v>2.64</v>
+        <v>7.6</v>
       </c>
       <c r="BC171" t="n">
-        <v>2.58</v>
+        <v>14.5</v>
       </c>
       <c r="BD171" t="n">
-        <v>2.68</v>
+        <v>18.5</v>
       </c>
       <c r="BE171" t="n">
-        <v>2.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF171" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="BG171" t="n">
-        <v>2.9</v>
+        <v>20</v>
       </c>
       <c r="BH171" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -33745,7 +33745,7 @@
         <v>1.51</v>
       </c>
       <c r="G172" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H172" t="n">
         <v>6.4</v>
@@ -33793,7 +33793,7 @@
         <v>1.17</v>
       </c>
       <c r="W172" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X172" t="n">
         <v>34</v>
@@ -33826,13 +33826,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH172" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI172" t="n">
         <v>60</v>
       </c>
       <c r="AJ172" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK172" t="n">
         <v>13</v>
@@ -33844,7 +33844,7 @@
         <v>65</v>
       </c>
       <c r="AN172" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO172" t="n">
         <v>50</v>
@@ -33895,7 +33895,7 @@
         <v>21</v>
       </c>
       <c r="BE172" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BF172" t="n">
         <v>5</v>
@@ -33905,7 +33905,7 @@
       </c>
       <c r="BH172" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -33939,7 +33939,7 @@
         <v>1.52</v>
       </c>
       <c r="G173" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H173" t="n">
         <v>7.8</v>
@@ -33987,7 +33987,7 @@
         <v>1.14</v>
       </c>
       <c r="W173" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X173" t="n">
         <v>15.5</v>
@@ -34099,7 +34099,7 @@
       </c>
       <c r="BH173" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -34133,7 +34133,7 @@
         <v>2.64</v>
       </c>
       <c r="G174" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H174" t="n">
         <v>2.9</v>
@@ -34142,7 +34142,7 @@
         <v>3.05</v>
       </c>
       <c r="J174" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K174" t="n">
         <v>3.55</v>
@@ -34154,7 +34154,7 @@
         <v>1.01</v>
       </c>
       <c r="N174" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O174" t="n">
         <v>1.37</v>
@@ -34181,7 +34181,7 @@
         <v>1.48</v>
       </c>
       <c r="W174" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X174" t="n">
         <v>15</v>
@@ -34293,7 +34293,7 @@
       </c>
       <c r="BH174" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -34348,16 +34348,16 @@
         <v>1.01</v>
       </c>
       <c r="N175" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="O175" t="n">
         <v>1.01</v>
       </c>
       <c r="P175" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="R175" t="n">
         <v>1.14</v>
@@ -34487,7 +34487,7 @@
       </c>
       <c r="BH175" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -34530,7 +34530,7 @@
         <v>22</v>
       </c>
       <c r="J176" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K176" t="n">
         <v>12</v>
@@ -34587,7 +34587,7 @@
         <v>16</v>
       </c>
       <c r="AC176" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD176" t="n">
         <v>85</v>
@@ -34632,7 +34632,7 @@
         <v>12</v>
       </c>
       <c r="AR176" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS176" t="n">
         <v>13.5</v>
@@ -34647,7 +34647,7 @@
         <v>11.5</v>
       </c>
       <c r="AW176" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX176" t="n">
         <v>9.4</v>
@@ -34662,13 +34662,13 @@
         <v>12.5</v>
       </c>
       <c r="BB176" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC176" t="n">
         <v>11.5</v>
       </c>
       <c r="BD176" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE176" t="n">
         <v>12.5</v>
@@ -34677,11 +34677,11 @@
         <v>2.38</v>
       </c>
       <c r="BG176" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BH176" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -34745,7 +34745,7 @@
         <v>2</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R177" t="n">
         <v>1.37</v>
@@ -34754,10 +34754,10 @@
         <v>3.2</v>
       </c>
       <c r="T177" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="U177" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V177" t="n">
         <v>1.17</v>
@@ -34850,7 +34850,7 @@
         <v>9</v>
       </c>
       <c r="AZ177" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA177" t="n">
         <v>9.199999999999999</v>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="BH177" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -34915,7 +34915,7 @@
         <v>4.7</v>
       </c>
       <c r="I178" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J178" t="n">
         <v>2.88</v>
@@ -34930,13 +34930,13 @@
         <v>1.01</v>
       </c>
       <c r="N178" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="O178" t="n">
         <v>1.56</v>
       </c>
       <c r="P178" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q178" t="n">
         <v>2.22</v>
@@ -34954,7 +34954,7 @@
         <v>1.01</v>
       </c>
       <c r="V178" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W178" t="n">
         <v>1.89</v>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="BH178" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -35211,10 +35211,10 @@
         <v>13</v>
       </c>
       <c r="AQ179" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR179" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS179" t="n">
         <v>50</v>
@@ -35226,25 +35226,25 @@
         <v>7.6</v>
       </c>
       <c r="AV179" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AW179" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX179" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY179" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ179" t="n">
         <v>17.5</v>
       </c>
       <c r="BA179" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB179" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC179" t="n">
         <v>13.5</v>
@@ -35263,7 +35263,7 @@
       </c>
       <c r="BH179" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -35321,7 +35321,7 @@
         <v>3.4</v>
       </c>
       <c r="O180" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P180" t="n">
         <v>1.81</v>
@@ -35330,7 +35330,7 @@
         <v>1.9</v>
       </c>
       <c r="R180" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S180" t="n">
         <v>3.6</v>
@@ -35366,7 +35366,7 @@
         <v>10</v>
       </c>
       <c r="AD180" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE180" t="n">
         <v>23</v>
@@ -35405,7 +35405,7 @@
         <v>10</v>
       </c>
       <c r="AQ180" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AR180" t="n">
         <v>9.4</v>
@@ -35432,32 +35432,32 @@
         <v>14</v>
       </c>
       <c r="AZ180" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA180" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BB180" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC180" t="n">
         <v>8.4</v>
       </c>
       <c r="BD180" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE180" t="n">
         <v>6</v>
       </c>
       <c r="BF180" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BG180" t="n">
         <v>11</v>
       </c>
       <c r="BH180" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -35488,13 +35488,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G181" t="n">
         <v>1000</v>
       </c>
       <c r="H181" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I181" t="n">
         <v>1000</v>
@@ -35512,19 +35512,19 @@
         <v>1.01</v>
       </c>
       <c r="N181" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="O181" t="n">
         <v>1.02</v>
       </c>
       <c r="P181" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q181" t="n">
         <v>1.39</v>
       </c>
       <c r="R181" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S181" t="n">
         <v>1.01</v>
@@ -35651,7 +35651,7 @@
       </c>
       <c r="BH181" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -35682,13 +35682,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G182" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="H182" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I182" t="n">
         <v>1000</v>
@@ -35697,7 +35697,7 @@
         <v>1.1</v>
       </c>
       <c r="K182" t="n">
-        <v>85</v>
+        <v>4.2</v>
       </c>
       <c r="L182" t="n">
         <v>1.01</v>
@@ -35733,7 +35733,7 @@
         <v>1.18</v>
       </c>
       <c r="W182" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="X182" t="n">
         <v>1000</v>
@@ -35845,7 +35845,7 @@
       </c>
       <c r="BH182" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36039,7 +36039,7 @@
       </c>
       <c r="BH183" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36094,16 +36094,16 @@
         <v>1.01</v>
       </c>
       <c r="N184" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O184" t="n">
         <v>1.35</v>
       </c>
       <c r="P184" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="R184" t="n">
         <v>1.23</v>
@@ -36233,7 +36233,7 @@
       </c>
       <c r="BH184" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36273,19 +36273,19 @@
         <v>3.75</v>
       </c>
       <c r="I185" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J185" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K185" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L185" t="n">
         <v>1.31</v>
       </c>
       <c r="M185" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N185" t="n">
         <v>2.26</v>
@@ -36297,7 +36297,7 @@
         <v>2.26</v>
       </c>
       <c r="Q185" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R185" t="n">
         <v>1.44</v>
@@ -36318,7 +36318,7 @@
         <v>1.91</v>
       </c>
       <c r="X185" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y185" t="n">
         <v>28</v>
@@ -36375,59 +36375,59 @@
         <v>2.1</v>
       </c>
       <c r="AQ185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BF185" t="n">
         <v>2.1</v>
       </c>
-      <c r="AR185" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AS185" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT185" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU185" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AV185" t="n">
+      <c r="BG185" t="n">
         <v>2.1</v>
       </c>
-      <c r="AW185" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AX185" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AY185" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AZ185" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BA185" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BB185" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BC185" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD185" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE185" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BF185" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BG185" t="n">
-        <v>2.26</v>
-      </c>
       <c r="BH185" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36485,7 +36485,7 @@
         <v>2.2</v>
       </c>
       <c r="O186" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P186" t="n">
         <v>2.2</v>
@@ -36621,7 +36621,7 @@
       </c>
       <c r="BH186" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36655,7 +36655,7 @@
         <v>3</v>
       </c>
       <c r="G187" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H187" t="n">
         <v>2.58</v>
@@ -36664,7 +36664,7 @@
         <v>2.82</v>
       </c>
       <c r="J187" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K187" t="n">
         <v>3.4</v>
@@ -36691,7 +36691,7 @@
         <v>1.13</v>
       </c>
       <c r="S187" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T187" t="n">
         <v>1.01</v>
@@ -36700,10 +36700,10 @@
         <v>1.01</v>
       </c>
       <c r="V187" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W187" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X187" t="n">
         <v>1000</v>
@@ -36815,7 +36815,7 @@
       </c>
       <c r="BH187" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -36846,22 +36846,22 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G188" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I188" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J188" t="n">
         <v>2.6</v>
       </c>
       <c r="K188" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="L188" t="n">
         <v>1.63</v>
@@ -36897,7 +36897,7 @@
         <v>1.41</v>
       </c>
       <c r="W188" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X188" t="n">
         <v>8</v>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="BH188" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -37043,7 +37043,7 @@
         <v>2.4</v>
       </c>
       <c r="G189" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H189" t="n">
         <v>3.6</v>
@@ -37052,7 +37052,7 @@
         <v>4</v>
       </c>
       <c r="J189" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K189" t="n">
         <v>3.1</v>
@@ -37070,7 +37070,7 @@
         <v>1.58</v>
       </c>
       <c r="P189" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Q189" t="n">
         <v>2.72</v>
@@ -37103,7 +37103,7 @@
         <v>25</v>
       </c>
       <c r="AA189" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB189" t="n">
         <v>7.4</v>
@@ -37127,7 +37127,7 @@
         <v>26</v>
       </c>
       <c r="AI189" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ189" t="n">
         <v>40</v>
@@ -37136,16 +37136,16 @@
         <v>38</v>
       </c>
       <c r="AL189" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM189" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN189" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO189" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP189" t="n">
         <v>7.2</v>
@@ -37157,7 +37157,7 @@
         <v>20</v>
       </c>
       <c r="AS189" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AT189" t="n">
         <v>6.4</v>
@@ -37169,7 +37169,7 @@
         <v>15</v>
       </c>
       <c r="AW189" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AX189" t="n">
         <v>12</v>
@@ -37190,10 +37190,10 @@
         <v>30</v>
       </c>
       <c r="BD189" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BE189" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BF189" t="n">
         <v>30</v>
@@ -37203,7 +37203,7 @@
       </c>
       <c r="BH189" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -37240,7 +37240,7 @@
         <v>2.74</v>
       </c>
       <c r="H190" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I190" t="n">
         <v>3.15</v>
@@ -37249,7 +37249,7 @@
         <v>3.35</v>
       </c>
       <c r="K190" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L190" t="n">
         <v>1.01</v>
@@ -37397,7 +37397,7 @@
       </c>
       <c r="BH190" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -37452,7 +37452,7 @@
         <v>1.01</v>
       </c>
       <c r="N191" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O191" t="n">
         <v>1.28</v>
@@ -37464,7 +37464,7 @@
         <v>1.28</v>
       </c>
       <c r="R191" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="S191" t="n">
         <v>1.28</v>
@@ -37591,7 +37591,7 @@
       </c>
       <c r="BH191" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -37646,13 +37646,13 @@
         <v>1.01</v>
       </c>
       <c r="N192" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O192" t="n">
         <v>1.25</v>
       </c>
       <c r="P192" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q192" t="n">
         <v>1.7</v>
@@ -37661,7 +37661,7 @@
         <v>1.33</v>
       </c>
       <c r="S192" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T192" t="n">
         <v>1.01</v>
@@ -37785,7 +37785,7 @@
       </c>
       <c r="BH192" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -37840,7 +37840,7 @@
         <v>1.01</v>
       </c>
       <c r="N193" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O193" t="n">
         <v>1.33</v>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="BH193" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -38058,7 +38058,7 @@
         <v>1.01</v>
       </c>
       <c r="V194" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W194" t="n">
         <v>1.68</v>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="BH194" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
@@ -38213,10 +38213,10 @@
         <v>1.48</v>
       </c>
       <c r="I195" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J195" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K195" t="n">
         <v>5</v>
@@ -38243,7 +38243,7 @@
         <v>1.31</v>
       </c>
       <c r="S195" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T195" t="n">
         <v>1.82</v>
@@ -38367,7 +38367,7 @@
       </c>
       <c r="BH195" t="inlineStr">
         <is>
-          <t>2026-02-19 21:40:40</t>
+          <t>2026-02-20 00:09:57</t>
         </is>
       </c>
     </row>
